--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
@@ -9,37 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Данные" sheetId="15" r:id="rId1"/>
-    <sheet name="Акт приемки" sheetId="14" r:id="rId2"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId3"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId4"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId5"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId6"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId7"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId8"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId9"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId10"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId11"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId12"/>
+    <sheet name="Лист1" sheetId="16" r:id="rId1"/>
+    <sheet name="Данные" sheetId="15" r:id="rId2"/>
+    <sheet name="Акт приемки" sheetId="14" r:id="rId3"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="143">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -379,12 +381,109 @@
   <si>
     <t>Полная высота 45,4 мм</t>
   </si>
+  <si>
+    <t>Дата поставки  03.10.2019 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Наименование деталей</t>
+  </si>
+  <si>
+    <t>Кол-во по ТТН, шт</t>
+  </si>
+  <si>
+    <t>Фактическое количество деталей по акту приемки, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Фактически пригодных деталей, шт.</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс детали, %</t>
+  </si>
+  <si>
+    <t>Чистовые формы</t>
+  </si>
+  <si>
+    <t>Чистовые поддоны</t>
+  </si>
+  <si>
+    <t>Черновые поддоны</t>
+  </si>
+  <si>
+    <t>Пресс-кольцо</t>
+  </si>
+  <si>
+    <t>Процесс эксплуатации формокомплекта</t>
+  </si>
+  <si>
+    <t>Начальный ресурс формо-комплекта, шт.</t>
+  </si>
+  <si>
+    <t>Дата установки формо-комплекта</t>
+  </si>
+  <si>
+    <t>Дата      снятия формо-комплекта</t>
+  </si>
+  <si>
+    <t>Дата текущего контроля</t>
+  </si>
+  <si>
+    <t>Количество выпущеной продукции, шт.</t>
+  </si>
+  <si>
+    <t>Количество капель, прошедших через формы, шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выработка формо-комплекта            в ,% </t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формо-комплекта, шт.</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формо-комплекта, %.</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формокомплекта</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>сутки</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки  "Баден 0.7" тип ХI-28МСА-700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+  </numFmts>
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -669,8 +768,122 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="61"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="15"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,8 +938,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -1844,13 +2075,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="628">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3003,9 +3301,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3052,9 +3347,87 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3064,152 +3437,8 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3261,73 +3490,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3351,6 +3583,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3377,42 +3678,289 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Процентный" xfId="4" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -5663,337 +6211,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="391" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="395"/>
-      <c r="C1" s="395"/>
-      <c r="D1" s="395"/>
-      <c r="E1" s="395"/>
-      <c r="G1" s="371" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="392" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="393"/>
-      <c r="C2" s="393"/>
-      <c r="D2" s="393"/>
-      <c r="E2" s="394"/>
-      <c r="G2" s="370" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="370" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="396" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="397"/>
-      <c r="C4" s="397"/>
-      <c r="D4" s="397"/>
-      <c r="E4" s="397"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="398" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="399"/>
-      <c r="C5" s="399"/>
-      <c r="D5" s="399"/>
-      <c r="E5" s="400"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="391" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="395"/>
-      <c r="C7" s="395"/>
-      <c r="D7" s="395"/>
-      <c r="E7" s="395"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="401"/>
-      <c r="B8" s="402"/>
-      <c r="C8" s="402"/>
-      <c r="D8" s="402"/>
-      <c r="E8" s="403"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="391" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="391"/>
-      <c r="C10" s="372"/>
-      <c r="D10" s="379" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="372"/>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="389"/>
-      <c r="B11" s="390"/>
-      <c r="D11" s="378">
-        <v>43763</v>
-      </c>
-      <c r="F11" s="386" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="386"/>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="387" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="387"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="386" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="386"/>
-      <c r="H12" s="386"/>
-      <c r="I12" s="386"/>
-      <c r="J12" s="387" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="387"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="373" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="374" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="382" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="386" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="386"/>
-      <c r="H13" s="386"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="387" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="387"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="375" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="376">
+    <row r="1" spans="1:13" ht="15.6">
+      <c r="A1" s="525" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="525"/>
+      <c r="C1" s="525"/>
+      <c r="D1" s="525"/>
+      <c r="E1" s="525"/>
+      <c r="F1" s="525"/>
+      <c r="G1" s="525"/>
+      <c r="H1" s="525"/>
+      <c r="I1" s="525"/>
+      <c r="J1" s="526"/>
+      <c r="K1" s="526"/>
+      <c r="L1" s="526"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="525" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="525"/>
+      <c r="E2" s="525"/>
+      <c r="F2" s="525"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="527"/>
+      <c r="K2" s="527"/>
+      <c r="L2" s="527"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="528" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="528"/>
+      <c r="C3" s="528"/>
+      <c r="D3" s="528"/>
+      <c r="E3" s="528"/>
+      <c r="F3" s="528"/>
+      <c r="G3" s="528"/>
+      <c r="H3" s="528"/>
+      <c r="I3" s="528"/>
+      <c r="K3" s="529"/>
+      <c r="L3" s="529"/>
+      <c r="M3" s="530"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A4" s="530"/>
+      <c r="B4" s="531"/>
+      <c r="C4" s="531"/>
+      <c r="F4" s="532"/>
+      <c r="G4" s="533"/>
+      <c r="H4" s="532"/>
+      <c r="I4" s="532"/>
+      <c r="J4" s="529"/>
+      <c r="K4" s="529"/>
+      <c r="M4" s="372"/>
+    </row>
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+      <c r="A5" s="534" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="535" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="535" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="627" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="535" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="535" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="535" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="536" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="537"/>
+      <c r="J5" s="537"/>
+      <c r="K5" s="537"/>
+      <c r="L5" s="537"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="538">
+        <v>1</v>
+      </c>
+      <c r="B6" s="539" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="540" t="str">
+        <f>Данные!C14</f>
+        <v>BADEN 700</v>
+      </c>
+      <c r="D6" s="541">
+        <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="C14" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="375" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="376">
+      <c r="E6" s="541">
         <v>6</v>
       </c>
-      <c r="C15" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="375" t="s">
+      <c r="F6" s="542"/>
+      <c r="G6" s="541">
+        <f>E6-F6</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="543"/>
+      <c r="I6" s="544"/>
+      <c r="J6" s="530"/>
+      <c r="K6" s="530"/>
+      <c r="L6" s="544"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="545">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="546" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="540" t="str">
+        <f>Данные!C15</f>
+        <v>BADEN 700</v>
+      </c>
+      <c r="D7" s="540">
+        <f>Данные!B15</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="540">
+        <v>6</v>
+      </c>
+      <c r="F7" s="386"/>
+      <c r="G7" s="540">
+        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="547"/>
+      <c r="I7" s="544"/>
+      <c r="J7" s="530"/>
+      <c r="K7" s="530"/>
+      <c r="L7" s="544"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="545">
+        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="546" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="376">
+      <c r="C8" s="540" t="str">
+        <f>Данные!C16</f>
+        <v>BADEN 700</v>
+      </c>
+      <c r="D8" s="540">
+        <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="C16" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="375" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="376">
+      <c r="E8" s="540">
         <v>8</v>
       </c>
-      <c r="C17" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="375" t="s">
+      <c r="F8" s="386"/>
+      <c r="G8" s="540">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="548"/>
+      <c r="I8" s="544"/>
+      <c r="J8" s="530"/>
+      <c r="K8" s="530"/>
+      <c r="L8" s="544"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="545">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="546" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="540" t="str">
+        <f>Данные!C17</f>
+        <v>BADEN 700</v>
+      </c>
+      <c r="D9" s="540">
+        <f>Данные!B17</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="540">
+        <v>8</v>
+      </c>
+      <c r="F9" s="386"/>
+      <c r="G9" s="540">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="548"/>
+      <c r="I9" s="544"/>
+      <c r="J9" s="549"/>
+      <c r="K9" s="530"/>
+      <c r="L9" s="544"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="545">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="550" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="540" t="str">
+        <f>Данные!C18</f>
+        <v>BADEN 700</v>
+      </c>
+      <c r="D10" s="540">
+        <f>Данные!B23</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="540">
+        <v>8</v>
+      </c>
+      <c r="F10" s="386"/>
+      <c r="G10" s="540">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H10" s="548"/>
+      <c r="I10" s="549"/>
+      <c r="J10" s="549"/>
+      <c r="K10" s="549"/>
+      <c r="L10" s="544"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="545">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="546" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="540"/>
+      <c r="D11" s="540" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="540">
+        <v>20</v>
+      </c>
+      <c r="F11" s="386"/>
+      <c r="G11" s="540">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="548"/>
+      <c r="I11" s="544"/>
+      <c r="J11" s="549"/>
+      <c r="K11" s="530"/>
+      <c r="L11" s="544"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="545">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="546" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="381" t="s">
+      <c r="C12" s="540"/>
+      <c r="D12" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="375" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="381" t="s">
+      <c r="E12" s="540">
+        <v>60</v>
+      </c>
+      <c r="F12" s="551"/>
+      <c r="G12" s="540">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H12" s="548"/>
+      <c r="I12" s="549"/>
+      <c r="J12" s="549"/>
+      <c r="K12" s="549"/>
+      <c r="L12" s="544"/>
+      <c r="M12" s="552"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A13" s="545">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="550" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="540"/>
+      <c r="D13" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="375" t="s">
+      <c r="E13" s="540">
+        <v>20</v>
+      </c>
+      <c r="F13" s="553"/>
+      <c r="G13" s="540">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H13" s="548"/>
+      <c r="I13" s="549"/>
+      <c r="J13" s="549"/>
+      <c r="K13" s="549"/>
+      <c r="L13" s="544"/>
+      <c r="M13" s="552"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A14" s="545">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="550" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="540"/>
+      <c r="D14" s="540" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="540">
+        <v>8</v>
+      </c>
+      <c r="F14" s="386"/>
+      <c r="G14" s="540">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H14" s="548" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="549"/>
+      <c r="J14" s="549"/>
+      <c r="K14" s="549"/>
+      <c r="L14" s="544"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A15" s="545">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="546" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="381" t="s">
+      <c r="C15" s="540"/>
+      <c r="D15" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="375" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="381" t="s">
+      <c r="E15" s="540">
+        <v>50</v>
+      </c>
+      <c r="F15" s="551"/>
+      <c r="G15" s="540">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H15" s="548"/>
+      <c r="I15" s="549"/>
+      <c r="J15" s="549"/>
+      <c r="K15" s="549"/>
+      <c r="L15" s="544"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A16" s="545">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="546" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="540"/>
+      <c r="D16" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="375" t="s">
+      <c r="E16" s="540">
+        <v>60</v>
+      </c>
+      <c r="F16" s="386"/>
+      <c r="G16" s="540">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H16" s="548"/>
+      <c r="I16" s="549"/>
+      <c r="J16" s="549"/>
+      <c r="K16" s="549"/>
+      <c r="L16" s="544"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A17" s="554">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="555" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="381" t="s">
+      <c r="C17" s="556"/>
+      <c r="D17" s="626" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="375" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="376">
-        <v>8</v>
-      </c>
-      <c r="C23" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="375" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="381" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="375" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="381" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="377" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="381" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="377" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="381" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="381" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="380"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="388" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="388"/>
-      <c r="C29" s="388"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
+      <c r="E17" s="556">
+        <v>24</v>
+      </c>
+      <c r="F17" s="557"/>
+      <c r="G17" s="556">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H17" s="558"/>
+      <c r="I17" s="549"/>
+      <c r="J17" s="559"/>
+      <c r="K17" s="549"/>
+      <c r="L17" s="544"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="560"/>
+      <c r="B18" s="561"/>
+      <c r="C18" s="530"/>
+      <c r="D18" s="530"/>
+      <c r="E18" s="530"/>
+      <c r="F18" s="530"/>
+      <c r="G18" s="530"/>
+      <c r="H18" s="530"/>
+      <c r="I18" s="530"/>
+      <c r="J18" s="530"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A19" s="530"/>
+      <c r="B19" s="562" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="372"/>
+      <c r="D19" s="372"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="372"/>
+      <c r="G19" s="530"/>
+      <c r="H19" s="530"/>
+      <c r="I19" s="530"/>
+      <c r="J19" s="563"/>
+      <c r="K19" s="563"/>
+      <c r="L19" s="563"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="A20" s="534" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="535" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="535" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="535" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="535" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="535" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="564" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="565" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="566" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="537"/>
+      <c r="K20" s="537"/>
+      <c r="L20" s="537"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="567">
+        <f>D6*700000</f>
+        <v>4200000</v>
+      </c>
+      <c r="B21" s="568">
+        <v>43768</v>
+      </c>
+      <c r="C21" s="569">
+        <v>43769</v>
+      </c>
+      <c r="D21" s="568">
+        <v>43770</v>
+      </c>
+      <c r="E21" s="570">
+        <v>246960</v>
+      </c>
+      <c r="F21" s="570">
+        <v>275256</v>
+      </c>
+      <c r="G21" s="571">
+        <f>F21/A$21</f>
+        <v>6.5537142857142863E-2</v>
+      </c>
+      <c r="H21" s="572">
+        <f>A21-F21</f>
+        <v>3924744</v>
+      </c>
+      <c r="I21" s="573">
+        <f>1-G21</f>
+        <v>0.93446285714285715</v>
+      </c>
+      <c r="J21" s="574"/>
+      <c r="K21" s="549"/>
+      <c r="L21" s="549"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A22" s="575"/>
+      <c r="B22" s="576"/>
+      <c r="C22" s="576"/>
+      <c r="D22" s="576"/>
+      <c r="E22" s="577"/>
+      <c r="F22" s="577"/>
+      <c r="G22" s="571">
+        <f>F22/A$21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="578">
+        <f>H21-F22</f>
+        <v>3924744</v>
+      </c>
+      <c r="I22" s="579">
+        <f>I21-G22</f>
+        <v>0.93446285714285715</v>
+      </c>
+      <c r="J22" s="530"/>
+      <c r="K22" s="530"/>
+      <c r="L22" s="530"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A23" s="580"/>
+      <c r="B23" s="581"/>
+      <c r="C23" s="581"/>
+      <c r="D23" s="581"/>
+      <c r="E23" s="582"/>
+      <c r="F23" s="582"/>
+      <c r="G23" s="583"/>
+      <c r="H23" s="584"/>
+      <c r="I23" s="585"/>
+      <c r="J23" s="574"/>
+      <c r="K23" s="549"/>
+      <c r="L23" s="549"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="580"/>
+      <c r="B24" s="586"/>
+      <c r="C24" s="586"/>
+      <c r="D24" s="586"/>
+      <c r="E24" s="586"/>
+      <c r="F24" s="586"/>
+      <c r="G24" s="586"/>
+      <c r="H24" s="586"/>
+      <c r="I24" s="587"/>
+      <c r="J24" s="574"/>
+      <c r="K24" s="574"/>
+      <c r="L24" s="530"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="580"/>
+      <c r="B25" s="581"/>
+      <c r="C25" s="581"/>
+      <c r="D25" s="581"/>
+      <c r="E25" s="582"/>
+      <c r="F25" s="582"/>
+      <c r="G25" s="588"/>
+      <c r="H25" s="584"/>
+      <c r="I25" s="585"/>
+      <c r="J25" s="574"/>
+      <c r="K25" s="589"/>
+      <c r="L25" s="530"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="580"/>
+      <c r="B26" s="581"/>
+      <c r="C26" s="581"/>
+      <c r="D26" s="581"/>
+      <c r="E26" s="582"/>
+      <c r="F26" s="582"/>
+      <c r="G26" s="588"/>
+      <c r="H26" s="584"/>
+      <c r="I26" s="585"/>
+      <c r="J26" s="574"/>
+      <c r="K26" s="574"/>
+      <c r="L26" s="530"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="580"/>
+      <c r="B27" s="581"/>
+      <c r="C27" s="581"/>
+      <c r="D27" s="581"/>
+      <c r="E27" s="584"/>
+      <c r="F27" s="582"/>
+      <c r="G27" s="588"/>
+      <c r="H27" s="584"/>
+      <c r="I27" s="585"/>
+      <c r="J27" s="574"/>
+      <c r="K27" s="574"/>
+      <c r="L27" s="530"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="580"/>
+      <c r="B28" s="581"/>
+      <c r="C28" s="581"/>
+      <c r="D28" s="581"/>
+      <c r="E28" s="584"/>
+      <c r="F28" s="582"/>
+      <c r="G28" s="588"/>
+      <c r="H28" s="584"/>
+      <c r="I28" s="585"/>
+      <c r="J28" s="574"/>
+      <c r="K28" s="574"/>
+      <c r="L28" s="530"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="580"/>
+      <c r="B29" s="581"/>
+      <c r="C29" s="581"/>
+      <c r="D29" s="586"/>
+      <c r="E29" s="586"/>
+      <c r="F29" s="582"/>
+      <c r="G29" s="590"/>
+      <c r="H29" s="584"/>
+      <c r="I29" s="591"/>
+      <c r="J29" s="574"/>
+      <c r="K29" s="574"/>
+      <c r="L29" s="530"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="580"/>
+      <c r="B30" s="581"/>
+      <c r="C30" s="581"/>
+      <c r="D30" s="586"/>
+      <c r="E30" s="586"/>
+      <c r="F30" s="582"/>
+      <c r="G30" s="588"/>
+      <c r="H30" s="584"/>
+      <c r="I30" s="591"/>
+      <c r="J30" s="574"/>
+      <c r="K30" s="574"/>
+      <c r="L30" s="530"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A31" s="592"/>
+      <c r="B31" s="593"/>
+      <c r="C31" s="593"/>
+      <c r="D31" s="594"/>
+      <c r="E31" s="594"/>
+      <c r="F31" s="595"/>
+      <c r="G31" s="596"/>
+      <c r="H31" s="597"/>
+      <c r="I31" s="598"/>
+      <c r="J31" s="530"/>
+      <c r="K31" s="530"/>
+      <c r="L31" s="530"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A32" s="599" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="600"/>
+      <c r="C32" s="600"/>
+      <c r="D32" s="601"/>
+      <c r="E32" s="602">
+        <f>SUM(E21:E31)</f>
+        <v>246960</v>
+      </c>
+      <c r="F32" s="603">
+        <f>SUM(F21:F31)</f>
+        <v>275256</v>
+      </c>
+      <c r="G32" s="604">
+        <f>SUM(G21:G31)</f>
+        <v>6.5537142857142863E-2</v>
+      </c>
+      <c r="H32" s="605">
+        <f>A21-F32</f>
+        <v>3924744</v>
+      </c>
+      <c r="I32" s="606">
+        <f>1-G32</f>
+        <v>0.93446285714285715</v>
+      </c>
+      <c r="J32" s="607"/>
+      <c r="K32" s="607"/>
+      <c r="L32" s="607"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="530"/>
+      <c r="B35" s="530"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="530"/>
+      <c r="E35" s="530"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="530"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="530"/>
+      <c r="J35" s="530"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A36" s="608" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="608"/>
+      <c r="C36" s="608"/>
+      <c r="D36" s="608"/>
+      <c r="E36" s="530"/>
+      <c r="F36" s="530"/>
+      <c r="G36" s="530"/>
+      <c r="H36" s="530"/>
+      <c r="I36" s="530"/>
+      <c r="J36" s="530"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="609" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="609"/>
+      <c r="C37" s="610" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="610" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="530"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="530"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="530"/>
+      <c r="J37" s="530"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="611">
+        <f>A21-F32</f>
+        <v>3924744</v>
+      </c>
+      <c r="B38" s="612"/>
+      <c r="C38" s="613">
+        <f>1-G32</f>
+        <v>0.93446285714285715</v>
+      </c>
+      <c r="D38" s="614">
+        <f>(C38/0.8)*100</f>
+        <v>116.80785714285713</v>
+      </c>
+      <c r="E38" s="615" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="615"/>
+      <c r="G38" s="615"/>
+      <c r="H38" s="615"/>
+      <c r="I38" s="615"/>
+      <c r="J38" s="615"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="530"/>
+      <c r="B39" s="530"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="530"/>
+      <c r="E39" s="530"/>
+      <c r="F39" s="530"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="530"/>
+      <c r="B40" s="530"/>
+      <c r="C40" s="530"/>
+      <c r="D40" s="530"/>
+      <c r="E40" s="530"/>
+      <c r="F40" s="530"/>
+      <c r="G40" s="530"/>
+      <c r="H40" s="530"/>
+      <c r="I40" s="530"/>
+      <c r="J40" s="530"/>
+      <c r="K40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6">
+      <c r="A41" s="530"/>
+      <c r="B41" s="616"/>
+      <c r="C41" s="616"/>
+      <c r="D41" s="530"/>
+      <c r="E41" s="530"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="530"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="530"/>
+      <c r="J41" s="530"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="617"/>
+      <c r="B42" s="617"/>
+      <c r="C42" s="617"/>
+      <c r="D42" s="617"/>
+      <c r="E42" s="617"/>
+      <c r="F42" s="617"/>
+      <c r="G42" s="617"/>
+      <c r="H42" s="617"/>
+      <c r="I42" s="618"/>
+      <c r="J42" s="619"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="620"/>
+      <c r="B43" s="621"/>
+      <c r="C43" s="621"/>
+      <c r="D43" s="530"/>
+      <c r="E43" s="530"/>
+      <c r="F43" s="621"/>
+      <c r="G43" s="559"/>
+      <c r="H43" s="621"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="620"/>
+      <c r="B44" s="621"/>
+      <c r="C44" s="621"/>
+      <c r="D44" s="621"/>
+      <c r="E44" s="621"/>
+      <c r="F44" s="621"/>
+      <c r="G44" s="559"/>
+      <c r="H44" s="621"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="620"/>
+      <c r="B45" s="621"/>
+      <c r="C45" s="621"/>
+      <c r="D45" s="530"/>
+      <c r="E45" s="530"/>
+      <c r="F45" s="621"/>
+      <c r="G45" s="559"/>
+      <c r="H45" s="621"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="620"/>
+      <c r="B46" s="621"/>
+      <c r="C46" s="621"/>
+      <c r="D46" s="621"/>
+      <c r="E46" s="621"/>
+      <c r="F46" s="621"/>
+      <c r="G46" s="559"/>
+      <c r="H46" s="621"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="620"/>
+      <c r="B47" s="621"/>
+      <c r="C47" s="621"/>
+      <c r="D47" s="530"/>
+      <c r="E47" s="530"/>
+      <c r="F47" s="621"/>
+      <c r="G47" s="559"/>
+      <c r="H47" s="621"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="620"/>
+      <c r="B48" s="621"/>
+      <c r="C48" s="549"/>
+      <c r="D48" s="622"/>
+      <c r="E48" s="622"/>
+      <c r="F48" s="549"/>
+      <c r="G48" s="549"/>
+      <c r="H48" s="549"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="620"/>
+      <c r="B49" s="621"/>
+      <c r="C49" s="621"/>
+      <c r="D49" s="621"/>
+      <c r="E49" s="621"/>
+      <c r="F49" s="621"/>
+      <c r="G49" s="559"/>
+      <c r="H49" s="621"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="620"/>
+      <c r="B50" s="621"/>
+      <c r="C50" s="621"/>
+      <c r="D50" s="621"/>
+      <c r="E50" s="621"/>
+      <c r="F50" s="621"/>
+      <c r="G50" s="559"/>
+      <c r="H50" s="621"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="620"/>
+      <c r="B51" s="621"/>
+      <c r="C51" s="621"/>
+      <c r="D51" s="530"/>
+      <c r="E51" s="530"/>
+      <c r="F51" s="621"/>
+      <c r="G51" s="559"/>
+      <c r="H51" s="621"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6">
+      <c r="A52" s="530"/>
+      <c r="B52" s="623"/>
+      <c r="C52" s="623"/>
+      <c r="D52" s="624"/>
+      <c r="E52" s="615"/>
+      <c r="F52" s="530"/>
+      <c r="G52" s="530"/>
+      <c r="H52" s="530"/>
+      <c r="I52" s="530"/>
+      <c r="J52" s="530"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="617"/>
+      <c r="B53" s="617"/>
+      <c r="C53" s="617"/>
+      <c r="D53" s="617"/>
+      <c r="E53" s="617"/>
+      <c r="F53" s="617"/>
+      <c r="G53" s="617"/>
+      <c r="H53" s="617"/>
+      <c r="I53" s="618"/>
+      <c r="J53" s="619"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="620"/>
+      <c r="B54" s="530"/>
+      <c r="C54" s="530"/>
+      <c r="D54" s="530"/>
+      <c r="E54" s="530"/>
+      <c r="F54" s="559"/>
+      <c r="G54" s="559"/>
+      <c r="H54" s="621"/>
+      <c r="I54" s="625"/>
+      <c r="J54" s="625"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="620"/>
+      <c r="B55" s="530"/>
+      <c r="C55" s="530"/>
+      <c r="D55" s="549"/>
+      <c r="E55" s="549"/>
+      <c r="F55" s="549"/>
+      <c r="G55" s="549"/>
+      <c r="H55" s="549"/>
+      <c r="I55" s="625"/>
+      <c r="J55" s="625"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="530"/>
+      <c r="B56" s="530"/>
+      <c r="C56" s="530"/>
+      <c r="D56" s="530"/>
+      <c r="E56" s="530"/>
+      <c r="F56" s="530"/>
+      <c r="G56" s="530"/>
+      <c r="H56" s="530"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="618"/>
+      <c r="C61" s="619"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="618"/>
+      <c r="C68" s="619"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
+  <mergeCells count="13">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -6005,10 +7236,623 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="8" max="18" width="9" style="169" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="169"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="168"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.8">
+      <c r="A2" s="170"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="499"/>
+      <c r="K2" s="502" t="str">
+        <f>Данные!B20</f>
+        <v>нет</v>
+      </c>
+      <c r="L2" s="503"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="514"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="175"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A3" s="170"/>
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="175"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="170"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="175"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+      <c r="A5" s="170"/>
+      <c r="B5" s="437" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="175"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="170"/>
+      <c r="B6" s="437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
+        <f>Данные!$A2</f>
+        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
+      </c>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="175"/>
+    </row>
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="170"/>
+      <c r="B7" s="444" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="389"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="175"/>
+    </row>
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="186"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+      <c r="A9" s="187"/>
+      <c r="B9" s="254" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="346"/>
+      <c r="S9" s="202"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A10" s="180"/>
+      <c r="B10" s="189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="190">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D10" s="190">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="190">
+        <v>-0.05</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="347" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="347"/>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="347"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="186"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A11" s="180"/>
+      <c r="B11" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="192">
+        <v>21.5</v>
+      </c>
+      <c r="D11" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="192">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="349"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
+      <c r="R11" s="350"/>
+      <c r="S11" s="186"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A12" s="180"/>
+      <c r="B12" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="359">
+        <v>45.2</v>
+      </c>
+      <c r="D12" s="192">
+        <v>0</v>
+      </c>
+      <c r="E12" s="203">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="349"/>
+      <c r="O12" s="349"/>
+      <c r="P12" s="349"/>
+      <c r="Q12" s="349"/>
+      <c r="R12" s="350"/>
+      <c r="S12" s="186"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A13" s="180"/>
+      <c r="B13" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="359">
+        <v>37</v>
+      </c>
+      <c r="D13" s="192">
+        <v>0</v>
+      </c>
+      <c r="E13" s="192">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="349"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="349"/>
+      <c r="Q13" s="349"/>
+      <c r="R13" s="350"/>
+      <c r="S13" s="186"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A14" s="180"/>
+      <c r="B14" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="359">
+        <v>28.5</v>
+      </c>
+      <c r="D14" s="192">
+        <v>0</v>
+      </c>
+      <c r="E14" s="192">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="349"/>
+      <c r="P14" s="349"/>
+      <c r="Q14" s="349"/>
+      <c r="R14" s="350"/>
+      <c r="S14" s="186"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A15" s="180"/>
+      <c r="B15" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="359">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="349"/>
+      <c r="Q15" s="349"/>
+      <c r="R15" s="350"/>
+      <c r="S15" s="186"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+      <c r="A16" s="180"/>
+      <c r="B16" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="359">
+        <v>23.8</v>
+      </c>
+      <c r="D16" s="192">
+        <v>0</v>
+      </c>
+      <c r="E16" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="349"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="349"/>
+      <c r="Q16" s="349"/>
+      <c r="R16" s="350"/>
+      <c r="S16" s="186"/>
+    </row>
+    <row r="17" spans="1:19" ht="30.6">
+      <c r="A17" s="180"/>
+      <c r="B17" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="192">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D17" s="192">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="192">
+        <v>0</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="349"/>
+      <c r="O17" s="349"/>
+      <c r="P17" s="349"/>
+      <c r="Q17" s="349"/>
+      <c r="R17" s="350"/>
+      <c r="S17" s="186"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A18" s="180"/>
+      <c r="B18" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="359">
+        <v>28.5</v>
+      </c>
+      <c r="D18" s="192">
+        <v>0</v>
+      </c>
+      <c r="E18" s="192">
+        <v>-0.03</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="349"/>
+      <c r="O18" s="349"/>
+      <c r="P18" s="349"/>
+      <c r="Q18" s="349"/>
+      <c r="R18" s="350"/>
+      <c r="S18" s="186"/>
+    </row>
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+      <c r="A19" s="193"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="196"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C14+$D14</formula>
+      <formula>$C14+$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
@@ -6021,7 +7865,7 @@
     <col min="20" max="16384" width="9.109375" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -6042,49 +7886,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="209"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494" t="str">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502" t="str">
         <f>Данные!B21</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="495"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="514"/>
-      <c r="Q2" s="514"/>
+      <c r="P2" s="518"/>
+      <c r="Q2" s="518"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="209"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -6093,11 +7937,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="209"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6114,24 +7958,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="209"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -6140,24 +7984,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="209"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -6166,29 +8010,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="209"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -6197,7 +8041,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -6218,7 +8062,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6251,7 +8095,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -6284,7 +8128,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -6317,7 +8161,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -6350,7 +8194,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -6383,7 +8227,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -6416,7 +8260,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -6449,7 +8293,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -6482,7 +8326,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -6515,7 +8359,7 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="219"/>
       <c r="B18" s="515" t="s">
         <v>53</v>
@@ -6542,7 +8386,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -6563,9 +8407,17 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6577,14 +8429,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6623,7 +8467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -6634,7 +8478,7 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -6647,7 +8491,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -6668,49 +8512,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="133"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494" t="str">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502" t="str">
         <f>Данные!B26</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="495"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="518"/>
-      <c r="Q2" s="518"/>
+      <c r="P2" s="519"/>
+      <c r="Q2" s="519"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="133"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -6719,11 +8563,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="133"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6740,24 +8584,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="133"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -6766,24 +8610,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="133"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -6792,29 +8636,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="133"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -6823,7 +8667,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -6844,7 +8688,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6877,7 +8721,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -6910,7 +8754,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -6943,7 +8787,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -6976,7 +8820,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -7009,7 +8853,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -7042,7 +8886,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -7075,7 +8919,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -7108,7 +8952,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -7129,7 +8973,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -7150,7 +8994,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -7171,7 +9015,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -7192,20 +9036,9 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7213,6 +9046,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7231,18 +9075,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
@@ -7255,7 +9099,7 @@
     <col min="20" max="16384" width="9.109375" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -7276,49 +9120,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="266"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="519">
+      <c r="J2" s="499"/>
+      <c r="K2" s="521">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="L2" s="520"/>
+      <c r="L2" s="522"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="523"/>
-      <c r="Q2" s="523"/>
+      <c r="P2" s="520"/>
+      <c r="Q2" s="520"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="266"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="521"/>
-      <c r="L3" s="522"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="523"/>
+      <c r="L3" s="524"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -7327,11 +9171,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="266"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7348,24 +9192,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="266"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -7374,24 +9218,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="266"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -7400,29 +9244,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="266"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -7431,7 +9275,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -7452,7 +9296,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7485,7 +9329,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -7518,7 +9362,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30.6">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -7551,7 +9395,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -7584,7 +9428,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -7617,7 +9461,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -7650,7 +9494,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -7671,7 +9515,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -7692,9 +9536,11 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -7711,8 +9557,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7739,13 +9583,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A1" s="390" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="G1" s="371" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A2" s="391" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="392"/>
+      <c r="C2" s="392"/>
+      <c r="D2" s="392"/>
+      <c r="E2" s="393"/>
+      <c r="G2" s="370" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+      <c r="G3" s="370" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A4" s="395" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A5" s="397" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="399"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
+    <row r="7" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A7" s="390" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="394"/>
+      <c r="C7" s="394"/>
+      <c r="D7" s="394"/>
+      <c r="E7" s="394"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A8" s="400"/>
+      <c r="B8" s="401"/>
+      <c r="C8" s="401"/>
+      <c r="D8" s="401"/>
+      <c r="E8" s="402"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A10" s="390" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="390"/>
+      <c r="C10" s="372"/>
+      <c r="D10" s="379" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="372"/>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A11" s="388"/>
+      <c r="B11" s="389"/>
+      <c r="D11" s="378">
+        <v>43763</v>
+      </c>
+      <c r="F11" s="403" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="403"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="403"/>
+      <c r="J11" s="404" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="404"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="F12" s="403" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="403"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="403"/>
+      <c r="J12" s="404" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="404"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="373" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="374" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="382" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="403" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="403"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="403"/>
+      <c r="J13" s="404" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="404"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="375" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="376">
+        <v>6</v>
+      </c>
+      <c r="C14" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="375" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="376">
+        <v>6</v>
+      </c>
+      <c r="C15" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="375" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="376">
+        <v>8</v>
+      </c>
+      <c r="C16" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="375" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="376">
+        <v>8</v>
+      </c>
+      <c r="C17" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="375" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="375" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="375" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="375" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="375" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="376">
+        <v>8</v>
+      </c>
+      <c r="C23" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="375" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="381" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="377" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="377" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="381" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="380"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="387" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="387"/>
+      <c r="C29" s="387"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
@@ -7756,7 +9936,7 @@
     <col min="10" max="16384" width="9.109375" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
       <c r="G2" s="316" t="s">
         <v>57</v>
       </c>
@@ -7765,7 +9945,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
       <c r="G3" s="316" t="s">
         <v>101</v>
       </c>
@@ -7774,7 +9954,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
       <c r="G4" s="316" t="s">
         <v>104</v>
       </c>
@@ -7783,8 +9963,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="367" customFormat="1"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>102</v>
@@ -7792,12 +9972,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18">
       <c r="G8" s="310" t="s">
         <v>58</v>
       </c>
@@ -7807,50 +9987,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="431" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="406" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="431"/>
-      <c r="C11" s="431"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="431"/>
-      <c r="F11" s="431"/>
-      <c r="G11" s="431"/>
-      <c r="H11" s="431"/>
-      <c r="I11" s="431"/>
-      <c r="J11" s="431"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="430" t="s">
+      <c r="B11" s="406"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="406"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="406"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="406"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="405" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="430"/>
-      <c r="C12" s="430"/>
-      <c r="D12" s="430"/>
-      <c r="E12" s="430"/>
-      <c r="F12" s="430"/>
-      <c r="G12" s="430"/>
-      <c r="H12" s="430"/>
-      <c r="I12" s="430"/>
-      <c r="J12" s="430"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="432" t="str">
+      <c r="B12" s="405"/>
+      <c r="C12" s="405"/>
+      <c r="D12" s="405"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="405"/>
+      <c r="G12" s="405"/>
+      <c r="H12" s="405"/>
+      <c r="I12" s="405"/>
+      <c r="J12" s="405"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="407" t="str">
         <f>Данные!A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="B13" s="431"/>
-      <c r="C13" s="431"/>
-      <c r="D13" s="431"/>
-      <c r="E13" s="431"/>
-      <c r="F13" s="431"/>
-      <c r="G13" s="431"/>
-      <c r="H13" s="431"/>
-      <c r="I13" s="431"/>
-      <c r="J13" s="431"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="406"/>
+      <c r="C13" s="406"/>
+      <c r="D13" s="406"/>
+      <c r="E13" s="406"/>
+      <c r="F13" s="406"/>
+      <c r="G13" s="406"/>
+      <c r="H13" s="406"/>
+      <c r="I13" s="406"/>
+      <c r="J13" s="406"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="311" t="s">
         <v>59</v>
       </c>
@@ -7867,7 +10047,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6">
       <c r="A16" s="311" t="s">
         <v>95</v>
       </c>
@@ -7881,7 +10061,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6">
       <c r="A17" s="319" t="s">
         <v>60</v>
       </c>
@@ -7902,7 +10082,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6">
       <c r="A18" s="319" t="s">
         <v>60</v>
       </c>
@@ -7923,7 +10103,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -7941,7 +10121,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="311" t="s">
         <v>74</v>
       </c>
@@ -7958,7 +10138,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="311" t="s">
         <v>75</v>
       </c>
@@ -7972,42 +10152,42 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="425" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="411" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="425" t="s">
+      <c r="B22" s="411" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="425"/>
-      <c r="D22" s="425"/>
-      <c r="E22" s="425" t="s">
+      <c r="C22" s="411"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="411" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="425"/>
+      <c r="F22" s="411"/>
       <c r="G22" s="429" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="425" t="s">
+      <c r="H22" s="411" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="425"/>
-      <c r="J22" s="425"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="425"/>
-      <c r="B23" s="425"/>
-      <c r="C23" s="425"/>
-      <c r="D23" s="425"/>
-      <c r="E23" s="425"/>
-      <c r="F23" s="425"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="411"/>
+      <c r="B23" s="411"/>
+      <c r="C23" s="411"/>
+      <c r="D23" s="411"/>
+      <c r="E23" s="411"/>
+      <c r="F23" s="411"/>
       <c r="G23" s="429"/>
-      <c r="H23" s="425"/>
-      <c r="I23" s="425"/>
-      <c r="J23" s="425"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="404">
+      <c r="H23" s="411"/>
+      <c r="I23" s="411"/>
+      <c r="J23" s="411"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="412">
         <v>1</v>
       </c>
       <c r="B24" s="426" t="s">
@@ -8015,187 +10195,187 @@
       </c>
       <c r="C24" s="427"/>
       <c r="D24" s="428"/>
-      <c r="E24" s="408" t="str">
+      <c r="E24" s="414" t="str">
         <f>Данные!C14</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F24" s="409"/>
-      <c r="G24" s="412">
+      <c r="F24" s="415"/>
+      <c r="G24" s="418">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="H24" s="414"/>
-      <c r="I24" s="415"/>
-      <c r="J24" s="416"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="420"/>
-      <c r="B25" s="422" t="str">
+      <c r="H24" s="420"/>
+      <c r="I24" s="421"/>
+      <c r="J24" s="422"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A25" s="413"/>
+      <c r="B25" s="408" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C25" s="423"/>
-      <c r="D25" s="424"/>
-      <c r="E25" s="421"/>
-      <c r="F25" s="411"/>
-      <c r="G25" s="413"/>
-      <c r="H25" s="417"/>
-      <c r="I25" s="418"/>
-      <c r="J25" s="419"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="404">
+      <c r="C25" s="409"/>
+      <c r="D25" s="410"/>
+      <c r="E25" s="416"/>
+      <c r="F25" s="417"/>
+      <c r="G25" s="419"/>
+      <c r="H25" s="423"/>
+      <c r="I25" s="424"/>
+      <c r="J25" s="425"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="412">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="405" t="s">
+      <c r="B26" s="430" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="406"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408" t="str">
+      <c r="C26" s="431"/>
+      <c r="D26" s="432"/>
+      <c r="E26" s="414" t="str">
         <f>Данные!C15</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F26" s="409"/>
-      <c r="G26" s="412">
+      <c r="F26" s="415"/>
+      <c r="G26" s="418">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="H26" s="414"/>
-      <c r="I26" s="415"/>
-      <c r="J26" s="416"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="420"/>
-      <c r="B27" s="422" t="str">
+      <c r="H26" s="420"/>
+      <c r="I26" s="421"/>
+      <c r="J26" s="422"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A27" s="413"/>
+      <c r="B27" s="408" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C27" s="423"/>
-      <c r="D27" s="424"/>
-      <c r="E27" s="421"/>
-      <c r="F27" s="411"/>
-      <c r="G27" s="413"/>
-      <c r="H27" s="417"/>
-      <c r="I27" s="418"/>
-      <c r="J27" s="419"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="404">
+      <c r="C27" s="409"/>
+      <c r="D27" s="410"/>
+      <c r="E27" s="416"/>
+      <c r="F27" s="417"/>
+      <c r="G27" s="419"/>
+      <c r="H27" s="423"/>
+      <c r="I27" s="424"/>
+      <c r="J27" s="425"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A28" s="412">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="405" t="s">
+      <c r="B28" s="430" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="406"/>
-      <c r="D28" s="407"/>
-      <c r="E28" s="408" t="str">
+      <c r="C28" s="431"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="414" t="str">
         <f>Данные!C16</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F28" s="409"/>
-      <c r="G28" s="412">
+      <c r="F28" s="415"/>
+      <c r="G28" s="418">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="H28" s="414"/>
-      <c r="I28" s="415"/>
-      <c r="J28" s="416"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="420"/>
-      <c r="B29" s="422" t="str">
+      <c r="H28" s="420"/>
+      <c r="I28" s="421"/>
+      <c r="J28" s="422"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A29" s="413"/>
+      <c r="B29" s="408" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C29" s="423"/>
-      <c r="D29" s="424"/>
-      <c r="E29" s="421"/>
-      <c r="F29" s="411"/>
-      <c r="G29" s="413"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="419"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="404">
+      <c r="C29" s="409"/>
+      <c r="D29" s="410"/>
+      <c r="E29" s="416"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="419"/>
+      <c r="H29" s="423"/>
+      <c r="I29" s="424"/>
+      <c r="J29" s="425"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A30" s="412">
         <f t="shared" ref="A30:A32" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="405" t="s">
+      <c r="B30" s="430" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="406"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="408" t="str">
+      <c r="C30" s="431"/>
+      <c r="D30" s="432"/>
+      <c r="E30" s="414" t="str">
         <f>Данные!C17</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F30" s="409"/>
-      <c r="G30" s="412">
+      <c r="F30" s="415"/>
+      <c r="G30" s="418">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="H30" s="414"/>
-      <c r="I30" s="415"/>
-      <c r="J30" s="416"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="420"/>
-      <c r="B31" s="422" t="str">
+      <c r="H30" s="420"/>
+      <c r="I30" s="421"/>
+      <c r="J30" s="422"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A31" s="413"/>
+      <c r="B31" s="408" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C31" s="423"/>
-      <c r="D31" s="424"/>
-      <c r="E31" s="410"/>
-      <c r="F31" s="411"/>
-      <c r="G31" s="413"/>
-      <c r="H31" s="417"/>
-      <c r="I31" s="418"/>
-      <c r="J31" s="419"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="404">
+      <c r="C31" s="409"/>
+      <c r="D31" s="410"/>
+      <c r="E31" s="433"/>
+      <c r="F31" s="417"/>
+      <c r="G31" s="419"/>
+      <c r="H31" s="423"/>
+      <c r="I31" s="424"/>
+      <c r="J31" s="425"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A32" s="412">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B32" s="405" t="s">
+      <c r="B32" s="430" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="406"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="408" t="str">
+      <c r="C32" s="431"/>
+      <c r="D32" s="432"/>
+      <c r="E32" s="414" t="str">
         <f>Данные!C23</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F32" s="409"/>
-      <c r="G32" s="412">
+      <c r="F32" s="415"/>
+      <c r="G32" s="418">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="H32" s="414"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="416"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="420"/>
-      <c r="B33" s="422" t="str">
+      <c r="H32" s="420"/>
+      <c r="I32" s="421"/>
+      <c r="J32" s="422"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
+      <c r="A33" s="413"/>
+      <c r="B33" s="408" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C33" s="423"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="410"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="413"/>
-      <c r="H33" s="417"/>
-      <c r="I33" s="418"/>
-      <c r="J33" s="419"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="409"/>
+      <c r="D33" s="410"/>
+      <c r="E33" s="433"/>
+      <c r="F33" s="417"/>
+      <c r="G33" s="419"/>
+      <c r="H33" s="423"/>
+      <c r="I33" s="424"/>
+      <c r="J33" s="425"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="311"/>
       <c r="B34" s="311"/>
       <c r="C34" s="311"/>
@@ -8207,7 +10387,7 @@
       <c r="I34" s="311"/>
       <c r="J34" s="312"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="A35" s="311" t="s">
         <v>70</v>
       </c>
@@ -8221,7 +10401,7 @@
       <c r="I35" s="311"/>
       <c r="J35" s="312"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="311"/>
       <c r="B36" s="311"/>
       <c r="C36" s="311"/>
@@ -8233,7 +10413,7 @@
       <c r="I36" s="311"/>
       <c r="J36" s="312"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="311"/>
       <c r="B37" s="314" t="s">
         <v>71</v>
@@ -8249,7 +10429,7 @@
       <c r="I37" s="311"/>
       <c r="J37" s="312"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="311"/>
       <c r="B38" s="311"/>
       <c r="C38" s="311"/>
@@ -8261,7 +10441,7 @@
       <c r="I38" s="311"/>
       <c r="J38" s="312"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="A39" s="311"/>
       <c r="B39" s="311"/>
       <c r="C39" s="311"/>
@@ -8275,7 +10455,7 @@
       </c>
       <c r="J39" s="311"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.6">
       <c r="A40" s="311"/>
       <c r="B40" s="311"/>
       <c r="C40" s="311"/>
@@ -8286,7 +10466,7 @@
       <c r="I40" s="311"/>
       <c r="J40" s="311"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.6">
       <c r="A41" s="311"/>
       <c r="B41" s="311"/>
       <c r="C41" s="311"/>
@@ -8299,14 +10479,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="17.399999999999999">
       <c r="A42" s="308"/>
       <c r="B42" s="308"/>
       <c r="C42" s="308"/>
       <c r="D42" s="308"/>
       <c r="E42" s="308"/>
     </row>
-    <row r="43" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="17.399999999999999">
       <c r="A43" s="308"/>
       <c r="B43" s="308"/>
       <c r="C43" s="308"/>
@@ -8322,6 +10502,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -8338,28 +10540,6 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8367,7 +10547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
@@ -8378,7 +10558,7 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
@@ -8391,7 +10571,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8412,49 +10592,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="442" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="449" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="450"/>
-      <c r="K2" s="453">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="L2" s="454"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="436"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="446" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="451"/>
-      <c r="J3" s="452"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="456"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8463,11 +10643,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="440"/>
-      <c r="D4" s="441"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8484,24 +10664,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8510,24 +10690,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8536,29 +10716,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="401">
+      <c r="C7" s="445"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="471"/>
-      <c r="K7" s="389">
+      <c r="J7" s="448"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -8567,7 +10747,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -8588,7 +10768,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -8621,7 +10801,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -8654,7 +10834,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -8687,7 +10867,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -8720,7 +10900,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -8753,7 +10933,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -8786,7 +10966,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -8819,7 +10999,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -8852,7 +11032,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30.6">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -8885,7 +11065,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="23.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -8918,7 +11098,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>35</v>
@@ -8951,7 +11131,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.2" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>40</v>
@@ -8984,14 +11164,14 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.4">
       <c r="A21" s="78"/>
-      <c r="B21" s="472" t="s">
+      <c r="B21" s="449" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="473"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="474"/>
+      <c r="C21" s="450"/>
+      <c r="D21" s="450"/>
+      <c r="E21" s="451"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -9011,14 +11191,14 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="78"/>
-      <c r="B22" s="457" t="s">
+      <c r="B22" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="458"/>
-      <c r="D22" s="458"/>
-      <c r="E22" s="459"/>
+      <c r="C22" s="435"/>
+      <c r="D22" s="435"/>
+      <c r="E22" s="436"/>
       <c r="F22" s="116" t="s">
         <v>16</v>
       </c>
@@ -9038,7 +11218,7 @@
       <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A23" s="110"/>
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
@@ -9059,9 +11239,15 @@
       <c r="R23" s="113"/>
       <c r="S23" s="114"/>
     </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9076,12 +11262,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R22">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9100,7 +11280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -9111,7 +11291,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
@@ -9124,7 +11304,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9145,52 +11325,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="475">
+      <c r="B2" s="483">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="L2" s="495"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9199,11 +11379,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9220,24 +11400,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9246,24 +11426,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9272,29 +11452,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9303,7 +11483,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -9324,7 +11504,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -9357,7 +11537,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30.6">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -9390,7 +11570,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -9423,7 +11603,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -9456,7 +11636,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -9489,15 +11669,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="472" t="s">
+      <c r="B14" s="449" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="473"/>
-      <c r="D14" s="473"/>
-      <c r="E14" s="473"/>
-      <c r="F14" s="504"/>
+      <c r="C14" s="450"/>
+      <c r="D14" s="450"/>
+      <c r="E14" s="450"/>
+      <c r="F14" s="482"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -9514,14 +11694,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="457" t="s">
+      <c r="B15" s="434" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="458"/>
-      <c r="D15" s="458"/>
-      <c r="E15" s="459"/>
+      <c r="C15" s="435"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="436"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -9541,7 +11721,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -9562,16 +11742,22 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9586,12 +11772,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9618,7 +11798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -9629,7 +11809,7 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -9642,7 +11822,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9663,49 +11843,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="442" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="449" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="450"/>
-      <c r="K2" s="453">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="L2" s="454"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="445"/>
-      <c r="Q2" s="445"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="436"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="446" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="451"/>
-      <c r="J3" s="452"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="456"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9714,11 +11894,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="440"/>
-      <c r="D4" s="441"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9735,24 +11915,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9761,24 +11941,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9787,29 +11967,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="401">
+      <c r="C7" s="445"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="471"/>
-      <c r="K7" s="389">
+      <c r="J7" s="448"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9818,7 +11998,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -9839,7 +12019,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="31.2" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -9875,7 +12055,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -9911,7 +12091,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -9947,7 +12127,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -9983,7 +12163,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -10019,7 +12199,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -10055,7 +12235,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -10091,7 +12271,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -10127,7 +12307,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -10163,7 +12343,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -10199,7 +12379,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="30.6">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -10235,7 +12415,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="31.2" thickBot="1">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -10268,7 +12448,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.8" thickBot="1">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -10289,9 +12469,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -10308,8 +12490,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10330,7 +12510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -10341,7 +12521,7 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
@@ -10354,7 +12534,7 @@
     <col min="20" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -10375,49 +12555,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="434"/>
-      <c r="D2" s="435"/>
-      <c r="E2" s="442" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="443"/>
-      <c r="G2" s="443"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="449" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="450"/>
-      <c r="K2" s="453">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="L2" s="454"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
+      <c r="P2" s="506"/>
+      <c r="Q2" s="506"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="436"/>
-      <c r="C3" s="437"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="446" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="447"/>
-      <c r="G3" s="447"/>
-      <c r="H3" s="448"/>
-      <c r="I3" s="451"/>
-      <c r="J3" s="452"/>
-      <c r="K3" s="455"/>
-      <c r="L3" s="456"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10426,11 +12606,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="440"/>
-      <c r="D4" s="441"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10447,24 +12627,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="461"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10473,24 +12653,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="464"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="462"/>
-      <c r="J6" s="463"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10499,29 +12679,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="468"/>
-      <c r="D7" s="401">
+      <c r="C7" s="445"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="471"/>
-      <c r="K7" s="389">
+      <c r="J7" s="448"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10530,7 +12710,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -10551,7 +12731,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10584,7 +12764,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="31.2" thickBot="1">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -10617,7 +12797,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -10650,7 +12830,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -10683,7 +12863,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -10716,7 +12896,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -10749,7 +12929,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -10782,7 +12962,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -10803,9 +12983,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -10813,17 +13004,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -10845,7 +13025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10859,7 +13039,7 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -10872,7 +13052,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10893,62 +13073,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494" t="str">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502" t="str">
         <f>Данные!B18</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="495"/>
-      <c r="M2" s="506"/>
-      <c r="N2" s="507"/>
-      <c r="O2" s="507"/>
-      <c r="P2" s="507"/>
-      <c r="Q2" s="507"/>
-      <c r="R2" s="508"/>
+      <c r="L2" s="503"/>
+      <c r="M2" s="507"/>
+      <c r="N2" s="508"/>
+      <c r="O2" s="508"/>
+      <c r="P2" s="508"/>
+      <c r="Q2" s="508"/>
+      <c r="R2" s="509"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
-      <c r="M3" s="509"/>
-      <c r="N3" s="510"/>
-      <c r="O3" s="510"/>
-      <c r="P3" s="510"/>
-      <c r="Q3" s="510"/>
-      <c r="R3" s="511"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
+      <c r="M3" s="510"/>
+      <c r="N3" s="511"/>
+      <c r="O3" s="511"/>
+      <c r="P3" s="511"/>
+      <c r="Q3" s="511"/>
+      <c r="R3" s="512"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -10957,98 +13137,98 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="509"/>
-      <c r="N4" s="510"/>
-      <c r="O4" s="510"/>
-      <c r="P4" s="510"/>
-      <c r="Q4" s="510"/>
-      <c r="R4" s="511"/>
+      <c r="M4" s="510"/>
+      <c r="N4" s="511"/>
+      <c r="O4" s="511"/>
+      <c r="P4" s="511"/>
+      <c r="Q4" s="511"/>
+      <c r="R4" s="512"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="509"/>
-      <c r="N5" s="510"/>
-      <c r="O5" s="510"/>
-      <c r="P5" s="510"/>
-      <c r="Q5" s="510"/>
-      <c r="R5" s="511"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
+      <c r="M5" s="510"/>
+      <c r="N5" s="511"/>
+      <c r="O5" s="511"/>
+      <c r="P5" s="511"/>
+      <c r="Q5" s="511"/>
+      <c r="R5" s="512"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
-      <c r="M6" s="509"/>
-      <c r="N6" s="510"/>
-      <c r="O6" s="510"/>
-      <c r="P6" s="510"/>
-      <c r="Q6" s="510"/>
-      <c r="R6" s="511"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
+      <c r="M6" s="510"/>
+      <c r="N6" s="511"/>
+      <c r="O6" s="511"/>
+      <c r="P6" s="511"/>
+      <c r="Q6" s="511"/>
+      <c r="R6" s="512"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
-      <c r="M7" s="509"/>
-      <c r="N7" s="510"/>
-      <c r="O7" s="510"/>
-      <c r="P7" s="510"/>
-      <c r="Q7" s="510"/>
-      <c r="R7" s="511"/>
+      <c r="L7" s="389"/>
+      <c r="M7" s="510"/>
+      <c r="N7" s="511"/>
+      <c r="O7" s="511"/>
+      <c r="P7" s="511"/>
+      <c r="Q7" s="511"/>
+      <c r="R7" s="512"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11069,7 +13249,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -11102,7 +13282,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.15" customHeight="1">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11135,7 +13315,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.15" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -11168,7 +13348,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.15" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -11201,7 +13381,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.15" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -11234,7 +13414,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.15" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11267,7 +13447,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.15" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -11300,7 +13480,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.15" customHeight="1">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -11333,7 +13513,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.15" customHeight="1">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -11366,7 +13546,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.15" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -11399,7 +13579,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.15" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -11432,14 +13612,14 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="31.2" thickBot="1">
       <c r="A20" s="78"/>
-      <c r="B20" s="457" t="s">
+      <c r="B20" s="434" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="458"/>
-      <c r="D20" s="458"/>
-      <c r="E20" s="459"/>
+      <c r="C20" s="435"/>
+      <c r="D20" s="435"/>
+      <c r="E20" s="436"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -11459,7 +13639,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -11480,18 +13660,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
       <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11504,6 +13677,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11522,7 +13702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -11533,7 +13713,7 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -11545,7 +13725,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11566,49 +13746,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494" t="str">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502" t="str">
         <f>Данные!B19</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="495"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="512"/>
-      <c r="Q2" s="512"/>
+      <c r="P2" s="513"/>
+      <c r="Q2" s="513"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11617,11 +13797,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11638,24 +13818,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="397" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="399"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11664,24 +13844,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="460" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="391" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="399"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11690,29 +13870,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
+      <c r="C7" s="480"/>
+      <c r="D7" s="400">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
+      <c r="J7" s="480"/>
+      <c r="K7" s="388">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="390"/>
+      <c r="L7" s="389"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11721,7 +13901,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11742,7 +13922,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -11775,7 +13955,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="40.799999999999997">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -11808,7 +13988,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -11841,7 +14021,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -11874,7 +14054,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -11907,7 +14087,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -11940,7 +14120,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -11973,14 +14153,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="457" t="s">
+      <c r="B16" s="434" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="458"/>
-      <c r="D16" s="458"/>
-      <c r="E16" s="459"/>
+      <c r="C16" s="435"/>
+      <c r="D16" s="435"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -12000,7 +14180,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -12021,20 +14201,11 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12045,6 +14216,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12063,617 +14243,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
-    <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="168"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="475"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="484" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="490" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="491"/>
-      <c r="K2" s="494" t="str">
-        <f>Данные!B20</f>
-        <v>нет</v>
-      </c>
-      <c r="L2" s="495"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="513"/>
-      <c r="Q2" s="513"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="175"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="170"/>
-      <c r="B3" s="478"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="487" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="492"/>
-      <c r="J3" s="493"/>
-      <c r="K3" s="496"/>
-      <c r="L3" s="497"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="175"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="481"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="175"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170"/>
-      <c r="B5" s="460" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="498"/>
-      <c r="D5" s="398" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="399"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="400"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="500"/>
-      <c r="K5" s="501"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="175"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170"/>
-      <c r="B6" s="460" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="498"/>
-      <c r="D6" s="392" t="str">
-        <f>Данные!$A2</f>
-        <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
-      </c>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="466"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="500"/>
-      <c r="K6" s="501"/>
-      <c r="L6" s="400"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="175"/>
-    </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170"/>
-      <c r="B7" s="467" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="502"/>
-      <c r="D7" s="401">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="469"/>
-      <c r="F7" s="469"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="470"/>
-      <c r="I7" s="503" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="502"/>
-      <c r="K7" s="389">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="390"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="175"/>
-    </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="186"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="255" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="256" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="258" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="346"/>
-      <c r="S9" s="202"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="189" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="190">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="D10" s="190">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="190">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="347" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="347"/>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="347"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="186"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="191" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="192">
-        <v>21.5</v>
-      </c>
-      <c r="D11" s="192">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="192">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="349"/>
-      <c r="O11" s="349"/>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="349"/>
-      <c r="R11" s="350"/>
-      <c r="S11" s="186"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="359">
-        <v>45.2</v>
-      </c>
-      <c r="D12" s="192">
-        <v>0</v>
-      </c>
-      <c r="E12" s="203">
-        <v>-0.1</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="349"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="350"/>
-      <c r="S12" s="186"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="359">
-        <v>37</v>
-      </c>
-      <c r="D13" s="192">
-        <v>0</v>
-      </c>
-      <c r="E13" s="192">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="349"/>
-      <c r="O13" s="349"/>
-      <c r="P13" s="349"/>
-      <c r="Q13" s="349"/>
-      <c r="R13" s="350"/>
-      <c r="S13" s="186"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="191" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="359">
-        <v>28.5</v>
-      </c>
-      <c r="D14" s="192">
-        <v>0</v>
-      </c>
-      <c r="E14" s="192">
-        <v>-0.1</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="349"/>
-      <c r="O14" s="349"/>
-      <c r="P14" s="349"/>
-      <c r="Q14" s="349"/>
-      <c r="R14" s="350"/>
-      <c r="S14" s="186"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="359">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="192">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="349"/>
-      <c r="O15" s="349"/>
-      <c r="P15" s="349"/>
-      <c r="Q15" s="349"/>
-      <c r="R15" s="350"/>
-      <c r="S15" s="186"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="359">
-        <v>23.8</v>
-      </c>
-      <c r="D16" s="192">
-        <v>0</v>
-      </c>
-      <c r="E16" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="349"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="350"/>
-      <c r="S16" s="186"/>
-    </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="191" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="192">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="D17" s="192">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="192">
-        <v>0</v>
-      </c>
-      <c r="F17" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="349"/>
-      <c r="O17" s="349"/>
-      <c r="P17" s="349"/>
-      <c r="Q17" s="349"/>
-      <c r="R17" s="350"/>
-      <c r="S17" s="186"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="359">
-        <v>28.5</v>
-      </c>
-      <c r="D18" s="192">
-        <v>0</v>
-      </c>
-      <c r="E18" s="192">
-        <v>-0.03</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="349"/>
-      <c r="O18" s="349"/>
-      <c r="P18" s="349"/>
-      <c r="Q18" s="349"/>
-      <c r="R18" s="350"/>
-      <c r="S18" s="186"/>
-    </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="193"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="196"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C14+$D14</formula>
-      <formula>$C14+$E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="16" r:id="rId1"/>
+    <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
     <sheet name="Данные" sheetId="15" r:id="rId2"/>
     <sheet name="Акт приемки" sheetId="14" r:id="rId3"/>
     <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
@@ -29,19 +29,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="144">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (владелец )</t>
+  </si>
+  <si>
+    <t>Чистовые формы - 14 шт., черновые формы - 16 шт., плита охл. - 6 шт., воронка - 14 шт. уже были в эксплуатации</t>
   </si>
 </sst>
 </file>
@@ -479,9 +482,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -3303,420 +3306,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3904,24 +3495,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3932,27 +3511,451 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6213,8 +6216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6234,978 +6237,981 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="525" t="s">
+      <c r="A1" s="484" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="525"/>
-      <c r="C1" s="525"/>
-      <c r="D1" s="525"/>
-      <c r="E1" s="525"/>
-      <c r="F1" s="525"/>
-      <c r="G1" s="525"/>
-      <c r="H1" s="525"/>
-      <c r="I1" s="525"/>
-      <c r="J1" s="526"/>
-      <c r="K1" s="526"/>
-      <c r="L1" s="526"/>
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="484"/>
+      <c r="E1" s="484"/>
+      <c r="F1" s="484"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
+      <c r="I1" s="484"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="387"/>
+      <c r="L1" s="387"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="484" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="525"/>
-      <c r="E2" s="525"/>
-      <c r="F2" s="525"/>
-      <c r="G2" s="525"/>
-      <c r="H2" s="525"/>
-      <c r="I2" s="525"/>
-      <c r="J2" s="527"/>
-      <c r="K2" s="527"/>
-      <c r="L2" s="527"/>
+      <c r="B2" s="484"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="388"/>
+      <c r="K2" s="388"/>
+      <c r="L2" s="388"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="528" t="s">
+      <c r="A3" s="485" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="528"/>
-      <c r="C3" s="528"/>
-      <c r="D3" s="528"/>
-      <c r="E3" s="528"/>
-      <c r="F3" s="528"/>
-      <c r="G3" s="528"/>
-      <c r="H3" s="528"/>
-      <c r="I3" s="528"/>
-      <c r="K3" s="529"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="530"/>
+      <c r="B3" s="485"/>
+      <c r="C3" s="485"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="390"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A4" s="530"/>
-      <c r="B4" s="531"/>
-      <c r="C4" s="531"/>
-      <c r="F4" s="532"/>
-      <c r="G4" s="533"/>
-      <c r="H4" s="532"/>
-      <c r="I4" s="532"/>
-      <c r="J4" s="529"/>
-      <c r="K4" s="529"/>
+      <c r="A4" s="390"/>
+      <c r="B4" s="391"/>
+      <c r="C4" s="391"/>
+      <c r="F4" s="392"/>
+      <c r="G4" s="393"/>
+      <c r="H4" s="392"/>
+      <c r="I4" s="392"/>
+      <c r="J4" s="389"/>
+      <c r="K4" s="389"/>
       <c r="M4" s="372"/>
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A5" s="534" t="s">
+      <c r="A5" s="394" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="535" t="s">
+      <c r="B5" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="535" t="s">
+      <c r="C5" s="395" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="627" t="s">
+      <c r="D5" s="478" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="535" t="s">
+      <c r="E5" s="395" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="535" t="s">
+      <c r="F5" s="395" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="535" t="s">
+      <c r="G5" s="395" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="536" t="s">
+      <c r="H5" s="396" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="537"/>
-      <c r="J5" s="537"/>
-      <c r="K5" s="537"/>
-      <c r="L5" s="537"/>
+      <c r="I5" s="397"/>
+      <c r="J5" s="397"/>
+      <c r="K5" s="397"/>
+      <c r="L5" s="397"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="538">
+      <c r="A6" s="398">
         <v>1</v>
       </c>
-      <c r="B6" s="539" t="s">
+      <c r="B6" s="399" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="540" t="str">
+      <c r="C6" s="400" t="str">
         <f>Данные!C14</f>
         <v>BADEN 700</v>
       </c>
-      <c r="D6" s="541">
-        <f>Данные!B14</f>
-        <v>6</v>
-      </c>
-      <c r="E6" s="541">
-        <v>6</v>
-      </c>
-      <c r="F6" s="542"/>
-      <c r="G6" s="541">
+      <c r="D6" s="401">
+        <v>20</v>
+      </c>
+      <c r="E6" s="401">
+        <v>20</v>
+      </c>
+      <c r="F6" s="402"/>
+      <c r="G6" s="401">
         <f>E6-F6</f>
-        <v>6</v>
-      </c>
-      <c r="H6" s="543"/>
-      <c r="I6" s="544"/>
-      <c r="J6" s="530"/>
-      <c r="K6" s="530"/>
-      <c r="L6" s="544"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="403"/>
+      <c r="I6" s="404"/>
+      <c r="J6" s="390"/>
+      <c r="K6" s="390"/>
+      <c r="L6" s="404"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="545">
+      <c r="A7" s="405">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="546" t="s">
+      <c r="B7" s="406" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="540" t="str">
+      <c r="C7" s="400" t="str">
         <f>Данные!C15</f>
         <v>BADEN 700</v>
       </c>
-      <c r="D7" s="540">
-        <f>Данные!B15</f>
-        <v>6</v>
-      </c>
-      <c r="E7" s="540">
-        <v>6</v>
+      <c r="D7" s="400">
+        <v>20</v>
+      </c>
+      <c r="E7" s="400">
+        <v>20</v>
       </c>
       <c r="F7" s="386"/>
-      <c r="G7" s="540">
+      <c r="G7" s="400">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="547"/>
-      <c r="I7" s="544"/>
-      <c r="J7" s="530"/>
-      <c r="K7" s="530"/>
-      <c r="L7" s="544"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="407"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="390"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="404"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="545">
+      <c r="A8" s="405">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="546" t="s">
+      <c r="B8" s="406" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="540" t="str">
+      <c r="C8" s="400" t="str">
         <f>Данные!C16</f>
         <v>BADEN 700</v>
       </c>
-      <c r="D8" s="540">
-        <f>Данные!B16</f>
-        <v>8</v>
-      </c>
-      <c r="E8" s="540">
-        <v>8</v>
+      <c r="D8" s="400">
+        <v>24</v>
+      </c>
+      <c r="E8" s="400">
+        <v>24</v>
       </c>
       <c r="F8" s="386"/>
-      <c r="G8" s="540">
+      <c r="G8" s="400">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H8" s="548"/>
-      <c r="I8" s="544"/>
-      <c r="J8" s="530"/>
-      <c r="K8" s="530"/>
-      <c r="L8" s="544"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="408"/>
+      <c r="I8" s="404"/>
+      <c r="J8" s="390"/>
+      <c r="K8" s="390"/>
+      <c r="L8" s="404"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="545">
+      <c r="A9" s="405">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="546" t="s">
+      <c r="B9" s="406" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="540" t="str">
+      <c r="C9" s="400" t="str">
         <f>Данные!C17</f>
         <v>BADEN 700</v>
       </c>
-      <c r="D9" s="540">
-        <f>Данные!B17</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="540">
-        <v>8</v>
+      <c r="D9" s="400">
+        <v>24</v>
+      </c>
+      <c r="E9" s="400">
+        <v>24</v>
       </c>
       <c r="F9" s="386"/>
-      <c r="G9" s="540">
+      <c r="G9" s="400">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="548"/>
-      <c r="I9" s="544"/>
-      <c r="J9" s="549"/>
-      <c r="K9" s="530"/>
-      <c r="L9" s="544"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="408"/>
+      <c r="I9" s="404"/>
+      <c r="J9" s="409"/>
+      <c r="K9" s="390"/>
+      <c r="L9" s="404"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="545">
+      <c r="A10" s="405">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="550" t="s">
+      <c r="B10" s="410" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="540" t="str">
+      <c r="C10" s="400" t="str">
         <f>Данные!C18</f>
         <v>BADEN 700</v>
       </c>
-      <c r="D10" s="540">
-        <f>Данные!B23</f>
-        <v>8</v>
-      </c>
-      <c r="E10" s="540">
-        <v>8</v>
+      <c r="D10" s="400">
+        <v>22</v>
+      </c>
+      <c r="E10" s="400">
+        <v>22</v>
       </c>
       <c r="F10" s="386"/>
-      <c r="G10" s="540">
+      <c r="G10" s="400">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H10" s="548"/>
-      <c r="I10" s="549"/>
-      <c r="J10" s="549"/>
-      <c r="K10" s="549"/>
-      <c r="L10" s="544"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="408"/>
+      <c r="I10" s="409"/>
+      <c r="J10" s="409"/>
+      <c r="K10" s="409"/>
+      <c r="L10" s="404"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="545">
+      <c r="A11" s="405">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="546" t="s">
+      <c r="B11" s="406" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="540"/>
-      <c r="D11" s="540" t="s">
+      <c r="C11" s="400"/>
+      <c r="D11" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="540">
-        <v>20</v>
+      <c r="E11" s="400" t="s">
+        <v>92</v>
       </c>
       <c r="F11" s="386"/>
-      <c r="G11" s="540">
+      <c r="G11" s="400" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H11" s="548"/>
-      <c r="I11" s="544"/>
-      <c r="J11" s="549"/>
-      <c r="K11" s="530"/>
-      <c r="L11" s="544"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" s="404"/>
+      <c r="J11" s="409"/>
+      <c r="K11" s="390"/>
+      <c r="L11" s="404"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="545">
+      <c r="A12" s="405">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="546" t="s">
+      <c r="B12" s="406" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="540"/>
-      <c r="D12" s="540" t="s">
+      <c r="C12" s="400"/>
+      <c r="D12" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="540">
-        <v>60</v>
-      </c>
-      <c r="F12" s="551"/>
-      <c r="G12" s="540">
+      <c r="E12" s="400" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="411"/>
+      <c r="G12" s="400" t="e">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H12" s="548"/>
-      <c r="I12" s="549"/>
-      <c r="J12" s="549"/>
-      <c r="K12" s="549"/>
-      <c r="L12" s="544"/>
-      <c r="M12" s="552"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" s="409"/>
+      <c r="J12" s="409"/>
+      <c r="K12" s="409"/>
+      <c r="L12" s="404"/>
+      <c r="M12" s="412"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="545">
+      <c r="A13" s="405">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="550" t="s">
+      <c r="B13" s="410" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="540"/>
-      <c r="D13" s="540" t="s">
+      <c r="C13" s="400"/>
+      <c r="D13" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="540">
-        <v>20</v>
-      </c>
-      <c r="F13" s="553"/>
-      <c r="G13" s="540">
+      <c r="E13" s="400" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="413"/>
+      <c r="G13" s="400" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H13" s="548"/>
-      <c r="I13" s="549"/>
-      <c r="J13" s="549"/>
-      <c r="K13" s="549"/>
-      <c r="L13" s="544"/>
-      <c r="M13" s="552"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" s="409"/>
+      <c r="J13" s="409"/>
+      <c r="K13" s="409"/>
+      <c r="L13" s="404"/>
+      <c r="M13" s="412"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="545">
+      <c r="A14" s="405">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="550" t="s">
+      <c r="B14" s="410" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="540"/>
-      <c r="D14" s="540" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="540">
-        <v>8</v>
+      <c r="C14" s="400"/>
+      <c r="D14" s="400">
+        <v>6</v>
+      </c>
+      <c r="E14" s="400">
+        <v>6</v>
       </c>
       <c r="F14" s="386"/>
-      <c r="G14" s="540">
+      <c r="G14" s="400">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H14" s="548" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="408" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="549"/>
-      <c r="J14" s="549"/>
-      <c r="K14" s="549"/>
-      <c r="L14" s="544"/>
+      <c r="I14" s="409"/>
+      <c r="J14" s="409"/>
+      <c r="K14" s="409"/>
+      <c r="L14" s="404"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A15" s="545">
+      <c r="A15" s="405">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="406" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="540"/>
-      <c r="D15" s="540" t="s">
+      <c r="C15" s="400"/>
+      <c r="D15" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="540">
-        <v>50</v>
-      </c>
-      <c r="F15" s="551"/>
-      <c r="G15" s="540">
+      <c r="E15" s="400" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="411"/>
+      <c r="G15" s="400" t="e">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H15" s="548"/>
-      <c r="I15" s="549"/>
-      <c r="J15" s="549"/>
-      <c r="K15" s="549"/>
-      <c r="L15" s="544"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="408"/>
+      <c r="I15" s="409"/>
+      <c r="J15" s="409"/>
+      <c r="K15" s="409"/>
+      <c r="L15" s="404"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A16" s="545">
+      <c r="A16" s="405">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="546" t="s">
+      <c r="B16" s="406" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="540"/>
-      <c r="D16" s="540" t="s">
+      <c r="C16" s="400"/>
+      <c r="D16" s="400" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="540">
-        <v>60</v>
+      <c r="E16" s="400" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="386"/>
-      <c r="G16" s="540">
+      <c r="G16" s="400" t="e">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H16" s="548"/>
-      <c r="I16" s="549"/>
-      <c r="J16" s="549"/>
-      <c r="K16" s="549"/>
-      <c r="L16" s="544"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" s="408"/>
+      <c r="I16" s="409"/>
+      <c r="J16" s="409"/>
+      <c r="K16" s="409"/>
+      <c r="L16" s="404"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="554">
+      <c r="A17" s="414">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="555" t="s">
+      <c r="B17" s="415" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="556"/>
-      <c r="D17" s="626" t="s">
+      <c r="C17" s="416"/>
+      <c r="D17" s="477" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="556">
-        <v>24</v>
-      </c>
-      <c r="F17" s="557"/>
-      <c r="G17" s="556">
+      <c r="E17" s="477" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="417"/>
+      <c r="G17" s="416" t="e">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H17" s="558"/>
-      <c r="I17" s="549"/>
-      <c r="J17" s="559"/>
-      <c r="K17" s="549"/>
-      <c r="L17" s="544"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="418"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="419"/>
+      <c r="K17" s="409"/>
+      <c r="L17" s="404"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="560"/>
-      <c r="B18" s="561"/>
-      <c r="C18" s="530"/>
-      <c r="D18" s="530"/>
-      <c r="E18" s="530"/>
-      <c r="F18" s="530"/>
-      <c r="G18" s="530"/>
-      <c r="H18" s="530"/>
-      <c r="I18" s="530"/>
-      <c r="J18" s="530"/>
+      <c r="A18" s="420" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="421"/>
+      <c r="C18" s="390"/>
+      <c r="D18" s="390"/>
+      <c r="E18" s="390"/>
+      <c r="F18" s="390"/>
+      <c r="G18" s="390"/>
+      <c r="H18" s="390"/>
+      <c r="I18" s="390"/>
+      <c r="J18" s="390"/>
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A19" s="530"/>
-      <c r="B19" s="562" t="s">
+      <c r="A19" s="390"/>
+      <c r="B19" s="422" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="372"/>
       <c r="D19" s="372"/>
       <c r="E19" s="372"/>
       <c r="F19" s="372"/>
-      <c r="G19" s="530"/>
-      <c r="H19" s="530"/>
-      <c r="I19" s="530"/>
-      <c r="J19" s="563"/>
-      <c r="K19" s="563"/>
-      <c r="L19" s="563"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
+      <c r="J19" s="423"/>
+      <c r="K19" s="423"/>
+      <c r="L19" s="423"/>
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="534" t="s">
+      <c r="A20" s="394" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="535" t="s">
+      <c r="B20" s="395" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="535" t="s">
+      <c r="C20" s="395" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="535" t="s">
+      <c r="D20" s="395" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="535" t="s">
+      <c r="E20" s="395" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="535" t="s">
+      <c r="F20" s="395" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="564" t="s">
+      <c r="G20" s="424" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="565" t="s">
+      <c r="H20" s="425" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="566" t="s">
+      <c r="I20" s="426" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="537"/>
-      <c r="K20" s="537"/>
-      <c r="L20" s="537"/>
+      <c r="J20" s="397"/>
+      <c r="K20" s="397"/>
+      <c r="L20" s="397"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="567">
+      <c r="A21" s="427">
         <f>D6*700000</f>
-        <v>4200000</v>
-      </c>
-      <c r="B21" s="568">
+        <v>14000000</v>
+      </c>
+      <c r="B21" s="428">
         <v>43768</v>
       </c>
-      <c r="C21" s="569">
+      <c r="C21" s="429">
         <v>43769</v>
       </c>
-      <c r="D21" s="568">
+      <c r="D21" s="428">
         <v>43770</v>
       </c>
-      <c r="E21" s="570">
+      <c r="E21" s="430">
         <v>246960</v>
       </c>
-      <c r="F21" s="570">
+      <c r="F21" s="430">
         <v>275256</v>
       </c>
-      <c r="G21" s="571">
+      <c r="G21" s="431">
         <f>F21/A$21</f>
-        <v>6.5537142857142863E-2</v>
-      </c>
-      <c r="H21" s="572">
+        <v>1.9661142857142856E-2</v>
+      </c>
+      <c r="H21" s="432">
         <f>A21-F21</f>
-        <v>3924744</v>
-      </c>
-      <c r="I21" s="573">
+        <v>13724744</v>
+      </c>
+      <c r="I21" s="433">
         <f>1-G21</f>
-        <v>0.93446285714285715</v>
-      </c>
-      <c r="J21" s="574"/>
-      <c r="K21" s="549"/>
-      <c r="L21" s="549"/>
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="J21" s="434"/>
+      <c r="K21" s="409"/>
+      <c r="L21" s="409"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="575"/>
-      <c r="B22" s="576"/>
-      <c r="C22" s="576"/>
-      <c r="D22" s="576"/>
-      <c r="E22" s="577"/>
-      <c r="F22" s="577"/>
-      <c r="G22" s="571">
+      <c r="A22" s="435"/>
+      <c r="B22" s="436"/>
+      <c r="C22" s="436"/>
+      <c r="D22" s="436"/>
+      <c r="E22" s="437"/>
+      <c r="F22" s="437"/>
+      <c r="G22" s="431">
         <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="578">
+      <c r="H22" s="438">
         <f>H21-F22</f>
-        <v>3924744</v>
-      </c>
-      <c r="I22" s="579">
+        <v>13724744</v>
+      </c>
+      <c r="I22" s="439">
         <f>I21-G22</f>
-        <v>0.93446285714285715</v>
-      </c>
-      <c r="J22" s="530"/>
-      <c r="K22" s="530"/>
-      <c r="L22" s="530"/>
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="J22" s="390"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="390"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="580"/>
-      <c r="B23" s="581"/>
-      <c r="C23" s="581"/>
-      <c r="D23" s="581"/>
-      <c r="E23" s="582"/>
-      <c r="F23" s="582"/>
-      <c r="G23" s="583"/>
-      <c r="H23" s="584"/>
-      <c r="I23" s="585"/>
-      <c r="J23" s="574"/>
-      <c r="K23" s="549"/>
-      <c r="L23" s="549"/>
+      <c r="A23" s="440"/>
+      <c r="B23" s="441"/>
+      <c r="C23" s="441"/>
+      <c r="D23" s="441"/>
+      <c r="E23" s="442"/>
+      <c r="F23" s="442"/>
+      <c r="G23" s="443"/>
+      <c r="H23" s="444"/>
+      <c r="I23" s="445"/>
+      <c r="J23" s="434"/>
+      <c r="K23" s="409"/>
+      <c r="L23" s="409"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="580"/>
-      <c r="B24" s="586"/>
-      <c r="C24" s="586"/>
-      <c r="D24" s="586"/>
-      <c r="E24" s="586"/>
-      <c r="F24" s="586"/>
-      <c r="G24" s="586"/>
-      <c r="H24" s="586"/>
-      <c r="I24" s="587"/>
-      <c r="J24" s="574"/>
-      <c r="K24" s="574"/>
-      <c r="L24" s="530"/>
+      <c r="A24" s="440"/>
+      <c r="B24" s="446"/>
+      <c r="C24" s="446"/>
+      <c r="D24" s="446"/>
+      <c r="E24" s="446"/>
+      <c r="F24" s="446"/>
+      <c r="G24" s="446"/>
+      <c r="H24" s="446"/>
+      <c r="I24" s="447"/>
+      <c r="J24" s="434"/>
+      <c r="K24" s="434"/>
+      <c r="L24" s="390"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="580"/>
-      <c r="B25" s="581"/>
-      <c r="C25" s="581"/>
-      <c r="D25" s="581"/>
-      <c r="E25" s="582"/>
-      <c r="F25" s="582"/>
-      <c r="G25" s="588"/>
-      <c r="H25" s="584"/>
-      <c r="I25" s="585"/>
-      <c r="J25" s="574"/>
-      <c r="K25" s="589"/>
-      <c r="L25" s="530"/>
+      <c r="A25" s="440"/>
+      <c r="B25" s="441"/>
+      <c r="C25" s="441"/>
+      <c r="D25" s="441"/>
+      <c r="E25" s="442"/>
+      <c r="F25" s="442"/>
+      <c r="G25" s="448"/>
+      <c r="H25" s="444"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="434"/>
+      <c r="K25" s="449"/>
+      <c r="L25" s="390"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="580"/>
-      <c r="B26" s="581"/>
-      <c r="C26" s="581"/>
-      <c r="D26" s="581"/>
-      <c r="E26" s="582"/>
-      <c r="F26" s="582"/>
-      <c r="G26" s="588"/>
-      <c r="H26" s="584"/>
-      <c r="I26" s="585"/>
-      <c r="J26" s="574"/>
-      <c r="K26" s="574"/>
-      <c r="L26" s="530"/>
+      <c r="A26" s="440"/>
+      <c r="B26" s="441"/>
+      <c r="C26" s="441"/>
+      <c r="D26" s="441"/>
+      <c r="E26" s="442"/>
+      <c r="F26" s="442"/>
+      <c r="G26" s="448"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="445"/>
+      <c r="J26" s="434"/>
+      <c r="K26" s="434"/>
+      <c r="L26" s="390"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="580"/>
-      <c r="B27" s="581"/>
-      <c r="C27" s="581"/>
-      <c r="D27" s="581"/>
-      <c r="E27" s="584"/>
-      <c r="F27" s="582"/>
-      <c r="G27" s="588"/>
-      <c r="H27" s="584"/>
-      <c r="I27" s="585"/>
-      <c r="J27" s="574"/>
-      <c r="K27" s="574"/>
-      <c r="L27" s="530"/>
+      <c r="A27" s="440"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="441"/>
+      <c r="D27" s="441"/>
+      <c r="E27" s="444"/>
+      <c r="F27" s="442"/>
+      <c r="G27" s="448"/>
+      <c r="H27" s="444"/>
+      <c r="I27" s="445"/>
+      <c r="J27" s="434"/>
+      <c r="K27" s="434"/>
+      <c r="L27" s="390"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="580"/>
-      <c r="B28" s="581"/>
-      <c r="C28" s="581"/>
-      <c r="D28" s="581"/>
-      <c r="E28" s="584"/>
-      <c r="F28" s="582"/>
-      <c r="G28" s="588"/>
-      <c r="H28" s="584"/>
-      <c r="I28" s="585"/>
-      <c r="J28" s="574"/>
-      <c r="K28" s="574"/>
-      <c r="L28" s="530"/>
+      <c r="A28" s="440"/>
+      <c r="B28" s="441"/>
+      <c r="C28" s="441"/>
+      <c r="D28" s="441"/>
+      <c r="E28" s="444"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="448"/>
+      <c r="H28" s="444"/>
+      <c r="I28" s="445"/>
+      <c r="J28" s="434"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="390"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="580"/>
-      <c r="B29" s="581"/>
-      <c r="C29" s="581"/>
-      <c r="D29" s="586"/>
-      <c r="E29" s="586"/>
-      <c r="F29" s="582"/>
-      <c r="G29" s="590"/>
-      <c r="H29" s="584"/>
-      <c r="I29" s="591"/>
-      <c r="J29" s="574"/>
-      <c r="K29" s="574"/>
-      <c r="L29" s="530"/>
+      <c r="A29" s="440"/>
+      <c r="B29" s="441"/>
+      <c r="C29" s="441"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="446"/>
+      <c r="F29" s="442"/>
+      <c r="G29" s="450"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="451"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="434"/>
+      <c r="L29" s="390"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="580"/>
-      <c r="B30" s="581"/>
-      <c r="C30" s="581"/>
-      <c r="D30" s="586"/>
-      <c r="E30" s="586"/>
-      <c r="F30" s="582"/>
-      <c r="G30" s="588"/>
-      <c r="H30" s="584"/>
-      <c r="I30" s="591"/>
-      <c r="J30" s="574"/>
-      <c r="K30" s="574"/>
-      <c r="L30" s="530"/>
+      <c r="A30" s="440"/>
+      <c r="B30" s="441"/>
+      <c r="C30" s="441"/>
+      <c r="D30" s="446"/>
+      <c r="E30" s="446"/>
+      <c r="F30" s="442"/>
+      <c r="G30" s="448"/>
+      <c r="H30" s="444"/>
+      <c r="I30" s="451"/>
+      <c r="J30" s="434"/>
+      <c r="K30" s="434"/>
+      <c r="L30" s="390"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="592"/>
-      <c r="B31" s="593"/>
-      <c r="C31" s="593"/>
-      <c r="D31" s="594"/>
-      <c r="E31" s="594"/>
-      <c r="F31" s="595"/>
-      <c r="G31" s="596"/>
-      <c r="H31" s="597"/>
-      <c r="I31" s="598"/>
-      <c r="J31" s="530"/>
-      <c r="K31" s="530"/>
-      <c r="L31" s="530"/>
+      <c r="A31" s="452"/>
+      <c r="B31" s="453"/>
+      <c r="C31" s="453"/>
+      <c r="D31" s="454"/>
+      <c r="E31" s="454"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="456"/>
+      <c r="H31" s="457"/>
+      <c r="I31" s="458"/>
+      <c r="J31" s="390"/>
+      <c r="K31" s="390"/>
+      <c r="L31" s="390"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="599" t="s">
+      <c r="A32" s="459" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="600"/>
-      <c r="C32" s="600"/>
-      <c r="D32" s="601"/>
-      <c r="E32" s="602">
+      <c r="B32" s="460"/>
+      <c r="C32" s="460"/>
+      <c r="D32" s="461"/>
+      <c r="E32" s="462">
         <f>SUM(E21:E31)</f>
         <v>246960</v>
       </c>
-      <c r="F32" s="603">
+      <c r="F32" s="463">
         <f>SUM(F21:F31)</f>
         <v>275256</v>
       </c>
-      <c r="G32" s="604">
+      <c r="G32" s="464">
         <f>SUM(G21:G31)</f>
-        <v>6.5537142857142863E-2</v>
-      </c>
-      <c r="H32" s="605">
+        <v>1.9661142857142856E-2</v>
+      </c>
+      <c r="H32" s="465">
         <f>A21-F32</f>
-        <v>3924744</v>
-      </c>
-      <c r="I32" s="606">
+        <v>13724744</v>
+      </c>
+      <c r="I32" s="466">
         <f>1-G32</f>
-        <v>0.93446285714285715</v>
-      </c>
-      <c r="J32" s="607"/>
-      <c r="K32" s="607"/>
-      <c r="L32" s="607"/>
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="J32" s="467"/>
+      <c r="K32" s="467"/>
+      <c r="L32" s="467"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="530"/>
-      <c r="B35" s="530"/>
-      <c r="C35" s="530"/>
-      <c r="D35" s="530"/>
-      <c r="E35" s="530"/>
-      <c r="F35" s="530"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="530"/>
-      <c r="J35" s="530"/>
+      <c r="A35" s="390"/>
+      <c r="B35" s="390"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="390"/>
+      <c r="E35" s="390"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="390"/>
+      <c r="H35" s="390"/>
+      <c r="I35" s="390"/>
+      <c r="J35" s="390"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="608" t="s">
+      <c r="A36" s="486" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="608"/>
-      <c r="C36" s="608"/>
-      <c r="D36" s="608"/>
-      <c r="E36" s="530"/>
-      <c r="F36" s="530"/>
-      <c r="G36" s="530"/>
-      <c r="H36" s="530"/>
-      <c r="I36" s="530"/>
-      <c r="J36" s="530"/>
+      <c r="B36" s="486"/>
+      <c r="C36" s="486"/>
+      <c r="D36" s="486"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="390"/>
+      <c r="I36" s="390"/>
+      <c r="J36" s="390"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="609" t="s">
+      <c r="A37" s="487" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="609"/>
-      <c r="C37" s="610" t="s">
+      <c r="B37" s="487"/>
+      <c r="C37" s="468" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="610" t="s">
+      <c r="D37" s="468" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="530"/>
-      <c r="F37" s="530"/>
-      <c r="G37" s="530"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="530"/>
-      <c r="J37" s="530"/>
+      <c r="E37" s="390"/>
+      <c r="F37" s="390"/>
+      <c r="G37" s="390"/>
+      <c r="H37" s="390"/>
+      <c r="I37" s="390"/>
+      <c r="J37" s="390"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="611">
+      <c r="A38" s="488">
         <f>A21-F32</f>
-        <v>3924744</v>
-      </c>
-      <c r="B38" s="612"/>
-      <c r="C38" s="613">
+        <v>13724744</v>
+      </c>
+      <c r="B38" s="489"/>
+      <c r="C38" s="469">
         <f>1-G32</f>
-        <v>0.93446285714285715</v>
-      </c>
-      <c r="D38" s="614">
+        <v>0.98033885714285718</v>
+      </c>
+      <c r="D38" s="470">
         <f>(C38/0.8)*100</f>
-        <v>116.80785714285713</v>
-      </c>
-      <c r="E38" s="615" t="s">
+        <v>122.54235714285716</v>
+      </c>
+      <c r="E38" s="471" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="615"/>
-      <c r="G38" s="615"/>
-      <c r="H38" s="615"/>
-      <c r="I38" s="615"/>
-      <c r="J38" s="615"/>
+      <c r="F38" s="471"/>
+      <c r="G38" s="471"/>
+      <c r="H38" s="471"/>
+      <c r="I38" s="471"/>
+      <c r="J38" s="471"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="530"/>
-      <c r="B39" s="530"/>
-      <c r="C39" s="530"/>
-      <c r="D39" s="530"/>
-      <c r="E39" s="530"/>
-      <c r="F39" s="530"/>
+      <c r="A39" s="390"/>
+      <c r="B39" s="390"/>
+      <c r="C39" s="390"/>
+      <c r="D39" s="390"/>
+      <c r="E39" s="390"/>
+      <c r="F39" s="390"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="530"/>
-      <c r="B40" s="530"/>
-      <c r="C40" s="530"/>
-      <c r="D40" s="530"/>
-      <c r="E40" s="530"/>
-      <c r="F40" s="530"/>
-      <c r="G40" s="530"/>
-      <c r="H40" s="530"/>
-      <c r="I40" s="530"/>
-      <c r="J40" s="530"/>
+      <c r="A40" s="390"/>
+      <c r="B40" s="390"/>
+      <c r="C40" s="390"/>
+      <c r="D40" s="390"/>
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390"/>
+      <c r="J40" s="390"/>
       <c r="K40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6">
-      <c r="A41" s="530"/>
-      <c r="B41" s="616"/>
-      <c r="C41" s="616"/>
-      <c r="D41" s="530"/>
-      <c r="E41" s="530"/>
-      <c r="F41" s="530"/>
-      <c r="G41" s="530"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="530"/>
-      <c r="J41" s="530"/>
+      <c r="A41" s="390"/>
+      <c r="B41" s="472"/>
+      <c r="C41" s="472"/>
+      <c r="D41" s="390"/>
+      <c r="E41" s="390"/>
+      <c r="F41" s="390"/>
+      <c r="G41" s="390"/>
+      <c r="H41" s="390"/>
+      <c r="I41" s="390"/>
+      <c r="J41" s="390"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="617"/>
-      <c r="B42" s="617"/>
-      <c r="C42" s="617"/>
-      <c r="D42" s="617"/>
-      <c r="E42" s="617"/>
-      <c r="F42" s="617"/>
-      <c r="G42" s="617"/>
-      <c r="H42" s="617"/>
-      <c r="I42" s="618"/>
-      <c r="J42" s="619"/>
+      <c r="A42" s="473"/>
+      <c r="B42" s="473"/>
+      <c r="C42" s="473"/>
+      <c r="D42" s="473"/>
+      <c r="E42" s="473"/>
+      <c r="F42" s="473"/>
+      <c r="G42" s="473"/>
+      <c r="H42" s="473"/>
+      <c r="I42" s="479"/>
+      <c r="J42" s="480"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="620"/>
-      <c r="B43" s="621"/>
-      <c r="C43" s="621"/>
-      <c r="D43" s="530"/>
-      <c r="E43" s="530"/>
-      <c r="F43" s="621"/>
-      <c r="G43" s="559"/>
-      <c r="H43" s="621"/>
+      <c r="A43" s="474"/>
+      <c r="B43" s="475"/>
+      <c r="C43" s="475"/>
+      <c r="D43" s="390"/>
+      <c r="E43" s="390"/>
+      <c r="F43" s="475"/>
+      <c r="G43" s="419"/>
+      <c r="H43" s="475"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="620"/>
-      <c r="B44" s="621"/>
-      <c r="C44" s="621"/>
-      <c r="D44" s="621"/>
-      <c r="E44" s="621"/>
-      <c r="F44" s="621"/>
-      <c r="G44" s="559"/>
-      <c r="H44" s="621"/>
+      <c r="A44" s="474"/>
+      <c r="B44" s="475"/>
+      <c r="C44" s="475"/>
+      <c r="D44" s="475"/>
+      <c r="E44" s="475"/>
+      <c r="F44" s="475"/>
+      <c r="G44" s="419"/>
+      <c r="H44" s="475"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="620"/>
-      <c r="B45" s="621"/>
-      <c r="C45" s="621"/>
-      <c r="D45" s="530"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="621"/>
-      <c r="G45" s="559"/>
-      <c r="H45" s="621"/>
+      <c r="A45" s="474"/>
+      <c r="B45" s="475"/>
+      <c r="C45" s="475"/>
+      <c r="D45" s="390"/>
+      <c r="E45" s="390"/>
+      <c r="F45" s="475"/>
+      <c r="G45" s="419"/>
+      <c r="H45" s="475"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="620"/>
-      <c r="B46" s="621"/>
-      <c r="C46" s="621"/>
-      <c r="D46" s="621"/>
-      <c r="E46" s="621"/>
-      <c r="F46" s="621"/>
-      <c r="G46" s="559"/>
-      <c r="H46" s="621"/>
+      <c r="A46" s="474"/>
+      <c r="B46" s="475"/>
+      <c r="C46" s="475"/>
+      <c r="D46" s="475"/>
+      <c r="E46" s="475"/>
+      <c r="F46" s="475"/>
+      <c r="G46" s="419"/>
+      <c r="H46" s="475"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="620"/>
-      <c r="B47" s="621"/>
-      <c r="C47" s="621"/>
-      <c r="D47" s="530"/>
-      <c r="E47" s="530"/>
-      <c r="F47" s="621"/>
-      <c r="G47" s="559"/>
-      <c r="H47" s="621"/>
+      <c r="A47" s="474"/>
+      <c r="B47" s="475"/>
+      <c r="C47" s="475"/>
+      <c r="D47" s="390"/>
+      <c r="E47" s="390"/>
+      <c r="F47" s="475"/>
+      <c r="G47" s="419"/>
+      <c r="H47" s="475"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="620"/>
-      <c r="B48" s="621"/>
-      <c r="C48" s="549"/>
-      <c r="D48" s="622"/>
-      <c r="E48" s="622"/>
-      <c r="F48" s="549"/>
-      <c r="G48" s="549"/>
-      <c r="H48" s="549"/>
+      <c r="A48" s="474"/>
+      <c r="B48" s="475"/>
+      <c r="C48" s="409"/>
+      <c r="D48" s="476"/>
+      <c r="E48" s="476"/>
+      <c r="F48" s="409"/>
+      <c r="G48" s="409"/>
+      <c r="H48" s="409"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="620"/>
-      <c r="B49" s="621"/>
-      <c r="C49" s="621"/>
-      <c r="D49" s="621"/>
-      <c r="E49" s="621"/>
-      <c r="F49" s="621"/>
-      <c r="G49" s="559"/>
-      <c r="H49" s="621"/>
+      <c r="A49" s="474"/>
+      <c r="B49" s="475"/>
+      <c r="C49" s="475"/>
+      <c r="D49" s="475"/>
+      <c r="E49" s="475"/>
+      <c r="F49" s="475"/>
+      <c r="G49" s="419"/>
+      <c r="H49" s="475"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="620"/>
-      <c r="B50" s="621"/>
-      <c r="C50" s="621"/>
-      <c r="D50" s="621"/>
-      <c r="E50" s="621"/>
-      <c r="F50" s="621"/>
-      <c r="G50" s="559"/>
-      <c r="H50" s="621"/>
+      <c r="A50" s="474"/>
+      <c r="B50" s="475"/>
+      <c r="C50" s="475"/>
+      <c r="D50" s="475"/>
+      <c r="E50" s="475"/>
+      <c r="F50" s="475"/>
+      <c r="G50" s="419"/>
+      <c r="H50" s="475"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="620"/>
-      <c r="B51" s="621"/>
-      <c r="C51" s="621"/>
-      <c r="D51" s="530"/>
-      <c r="E51" s="530"/>
-      <c r="F51" s="621"/>
-      <c r="G51" s="559"/>
-      <c r="H51" s="621"/>
+      <c r="A51" s="474"/>
+      <c r="B51" s="475"/>
+      <c r="C51" s="475"/>
+      <c r="D51" s="390"/>
+      <c r="E51" s="390"/>
+      <c r="F51" s="475"/>
+      <c r="G51" s="419"/>
+      <c r="H51" s="475"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
-      <c r="A52" s="530"/>
-      <c r="B52" s="623"/>
-      <c r="C52" s="623"/>
-      <c r="D52" s="624"/>
-      <c r="E52" s="615"/>
-      <c r="F52" s="530"/>
-      <c r="G52" s="530"/>
-      <c r="H52" s="530"/>
-      <c r="I52" s="530"/>
-      <c r="J52" s="530"/>
+      <c r="A52" s="390"/>
+      <c r="B52" s="481"/>
+      <c r="C52" s="481"/>
+      <c r="D52" s="482"/>
+      <c r="E52" s="471"/>
+      <c r="F52" s="390"/>
+      <c r="G52" s="390"/>
+      <c r="H52" s="390"/>
+      <c r="I52" s="390"/>
+      <c r="J52" s="390"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="617"/>
-      <c r="B53" s="617"/>
-      <c r="C53" s="617"/>
-      <c r="D53" s="617"/>
-      <c r="E53" s="617"/>
-      <c r="F53" s="617"/>
-      <c r="G53" s="617"/>
-      <c r="H53" s="617"/>
-      <c r="I53" s="618"/>
-      <c r="J53" s="619"/>
+      <c r="A53" s="473"/>
+      <c r="B53" s="473"/>
+      <c r="C53" s="473"/>
+      <c r="D53" s="473"/>
+      <c r="E53" s="473"/>
+      <c r="F53" s="473"/>
+      <c r="G53" s="473"/>
+      <c r="H53" s="473"/>
+      <c r="I53" s="479"/>
+      <c r="J53" s="480"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="620"/>
-      <c r="B54" s="530"/>
-      <c r="C54" s="530"/>
-      <c r="D54" s="530"/>
-      <c r="E54" s="530"/>
-      <c r="F54" s="559"/>
-      <c r="G54" s="559"/>
-      <c r="H54" s="621"/>
-      <c r="I54" s="625"/>
-      <c r="J54" s="625"/>
+      <c r="A54" s="474"/>
+      <c r="B54" s="390"/>
+      <c r="C54" s="390"/>
+      <c r="D54" s="390"/>
+      <c r="E54" s="390"/>
+      <c r="F54" s="419"/>
+      <c r="G54" s="419"/>
+      <c r="H54" s="475"/>
+      <c r="I54" s="483"/>
+      <c r="J54" s="483"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="620"/>
-      <c r="B55" s="530"/>
-      <c r="C55" s="530"/>
-      <c r="D55" s="549"/>
-      <c r="E55" s="549"/>
-      <c r="F55" s="549"/>
-      <c r="G55" s="549"/>
-      <c r="H55" s="549"/>
-      <c r="I55" s="625"/>
-      <c r="J55" s="625"/>
+      <c r="A55" s="474"/>
+      <c r="B55" s="390"/>
+      <c r="C55" s="390"/>
+      <c r="D55" s="409"/>
+      <c r="E55" s="409"/>
+      <c r="F55" s="409"/>
+      <c r="G55" s="409"/>
+      <c r="H55" s="409"/>
+      <c r="I55" s="483"/>
+      <c r="J55" s="483"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="530"/>
-      <c r="B56" s="530"/>
-      <c r="C56" s="530"/>
-      <c r="D56" s="530"/>
-      <c r="E56" s="530"/>
-      <c r="F56" s="530"/>
-      <c r="G56" s="530"/>
-      <c r="H56" s="530"/>
+      <c r="A56" s="390"/>
+      <c r="B56" s="390"/>
+      <c r="C56" s="390"/>
+      <c r="D56" s="390"/>
+      <c r="E56" s="390"/>
+      <c r="F56" s="390"/>
+      <c r="G56" s="390"/>
+      <c r="H56" s="390"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="618"/>
-      <c r="C61" s="619"/>
+      <c r="B61" s="479"/>
+      <c r="C61" s="480"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="618"/>
-      <c r="C68" s="619"/>
+      <c r="B68" s="479"/>
+      <c r="C68" s="480"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -7213,12 +7219,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -7275,47 +7275,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="170"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502" t="str">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598" t="str">
         <f>Данные!B20</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="514"/>
-      <c r="Q2" s="514"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="170"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -7326,9 +7326,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="170"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7347,22 +7347,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="170"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7373,22 +7373,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="170"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7399,27 +7399,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="170"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7805,6 +7805,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7812,17 +7823,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7888,47 +7888,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="209"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502" t="str">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598" t="str">
         <f>Данные!B21</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="518"/>
-      <c r="Q2" s="518"/>
+      <c r="P2" s="618"/>
+      <c r="Q2" s="618"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="209"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7939,9 +7939,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="209"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7960,22 +7960,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="209"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7986,22 +7986,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="209"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -8012,27 +8012,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="209"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8361,12 +8361,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="219"/>
-      <c r="B18" s="515" t="s">
+      <c r="B18" s="619" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="516"/>
-      <c r="D18" s="516"/>
-      <c r="E18" s="517"/>
+      <c r="C18" s="620"/>
+      <c r="D18" s="620"/>
+      <c r="E18" s="621"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8410,14 +8410,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8429,6 +8421,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8514,47 +8514,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="133"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502" t="str">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598" t="str">
         <f>Данные!B26</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="519"/>
-      <c r="Q2" s="519"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="133"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8565,9 +8565,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="133"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8586,22 +8586,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="133"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8612,22 +8612,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="133"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8638,27 +8638,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="133"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -9039,6 +9039,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9046,17 +9057,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9122,47 +9122,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="266"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="521">
+      <c r="J2" s="595"/>
+      <c r="K2" s="624">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="L2" s="522"/>
+      <c r="L2" s="625"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="520"/>
-      <c r="Q2" s="520"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="266"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="523"/>
-      <c r="L3" s="524"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="627"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -9173,9 +9173,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="266"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9194,22 +9194,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="266"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -9220,22 +9220,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="266"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -9246,27 +9246,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="266"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9539,6 +9539,8 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
@@ -9555,8 +9557,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9598,25 +9598,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="495" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
       <c r="G1" s="371" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="391" t="s">
+      <c r="A2" s="496" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="393"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="498"/>
       <c r="G2" s="370" t="s">
         <v>78</v>
       </c>
@@ -9627,45 +9627,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="395" t="s">
+      <c r="A4" s="500" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
+      <c r="B4" s="501"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="397" t="s">
+      <c r="A5" s="502" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="399"/>
+      <c r="B5" s="503"/>
+      <c r="C5" s="503"/>
+      <c r="D5" s="503"/>
+      <c r="E5" s="504"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="390" t="s">
+      <c r="A7" s="495" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="394"/>
-      <c r="C7" s="394"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="400"/>
-      <c r="B8" s="401"/>
-      <c r="C8" s="401"/>
-      <c r="D8" s="401"/>
-      <c r="E8" s="402"/>
+      <c r="A8" s="505"/>
+      <c r="B8" s="506"/>
+      <c r="C8" s="506"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="507"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="390" t="s">
+      <c r="A10" s="495" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="390"/>
+      <c r="B10" s="495"/>
       <c r="C10" s="372"/>
       <c r="D10" s="379" t="s">
         <v>93</v>
@@ -9676,33 +9676,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="388"/>
-      <c r="B11" s="389"/>
+      <c r="A11" s="493"/>
+      <c r="B11" s="494"/>
       <c r="D11" s="378">
         <v>43763</v>
       </c>
-      <c r="F11" s="403" t="s">
+      <c r="F11" s="490" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="403"/>
-      <c r="H11" s="403"/>
-      <c r="I11" s="403"/>
-      <c r="J11" s="404" t="s">
+      <c r="G11" s="490"/>
+      <c r="H11" s="490"/>
+      <c r="I11" s="490"/>
+      <c r="J11" s="491" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="404"/>
+      <c r="K11" s="491"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="403" t="s">
+      <c r="F12" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="403"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="404" t="s">
+      <c r="G12" s="490"/>
+      <c r="H12" s="490"/>
+      <c r="I12" s="490"/>
+      <c r="J12" s="491" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="404"/>
+      <c r="K12" s="491"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="373" t="s">
@@ -9714,16 +9714,16 @@
       <c r="C13" s="382" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="403" t="s">
+      <c r="F13" s="490" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="403"/>
-      <c r="H13" s="403"/>
-      <c r="I13" s="403"/>
-      <c r="J13" s="404" t="s">
+      <c r="G13" s="490"/>
+      <c r="H13" s="490"/>
+      <c r="I13" s="490"/>
+      <c r="J13" s="491" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="404"/>
+      <c r="K13" s="491"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="375" t="s">
@@ -9883,11 +9883,11 @@
       <c r="A28" s="380"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="387" t="s">
+      <c r="A29" s="492" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="387"/>
-      <c r="C29" s="387"/>
+      <c r="B29" s="492"/>
+      <c r="C29" s="492"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -9896,12 +9896,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -9911,6 +9905,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9921,7 +9921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
@@ -9988,47 +9988,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="406" t="s">
+      <c r="A11" s="530" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="406"/>
-      <c r="C11" s="406"/>
-      <c r="D11" s="406"/>
-      <c r="E11" s="406"/>
-      <c r="F11" s="406"/>
-      <c r="G11" s="406"/>
-      <c r="H11" s="406"/>
-      <c r="I11" s="406"/>
-      <c r="J11" s="406"/>
+      <c r="B11" s="530"/>
+      <c r="C11" s="530"/>
+      <c r="D11" s="530"/>
+      <c r="E11" s="530"/>
+      <c r="F11" s="530"/>
+      <c r="G11" s="530"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="530"/>
+      <c r="J11" s="530"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="405" t="s">
+      <c r="A12" s="529" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="405"/>
-      <c r="C12" s="405"/>
-      <c r="D12" s="405"/>
-      <c r="E12" s="405"/>
-      <c r="F12" s="405"/>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="405"/>
+      <c r="B12" s="529"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="529"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="529"/>
+      <c r="J12" s="529"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="407" t="str">
+      <c r="A13" s="531" t="str">
         <f>Данные!A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="B13" s="406"/>
-      <c r="C13" s="406"/>
-      <c r="D13" s="406"/>
-      <c r="E13" s="406"/>
-      <c r="F13" s="406"/>
-      <c r="G13" s="406"/>
-      <c r="H13" s="406"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="406"/>
+      <c r="B13" s="530"/>
+      <c r="C13" s="530"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="530"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="530"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="530"/>
+      <c r="J13" s="530"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="311" t="s">
@@ -10153,227 +10153,227 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="411" t="s">
+      <c r="A22" s="532" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="411" t="s">
+      <c r="B22" s="532" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="411"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="411" t="s">
+      <c r="C22" s="532"/>
+      <c r="D22" s="532"/>
+      <c r="E22" s="532" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="411"/>
-      <c r="G22" s="429" t="s">
+      <c r="F22" s="532"/>
+      <c r="G22" s="536" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="411" t="s">
+      <c r="H22" s="532" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="411"/>
-      <c r="J22" s="411"/>
+      <c r="I22" s="532"/>
+      <c r="J22" s="532"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="411"/>
-      <c r="B23" s="411"/>
-      <c r="C23" s="411"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="411"/>
-      <c r="F23" s="411"/>
-      <c r="G23" s="429"/>
-      <c r="H23" s="411"/>
-      <c r="I23" s="411"/>
-      <c r="J23" s="411"/>
+      <c r="A23" s="532"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="532"/>
+      <c r="D23" s="532"/>
+      <c r="E23" s="532"/>
+      <c r="F23" s="532"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="532"/>
+      <c r="I23" s="532"/>
+      <c r="J23" s="532"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="412">
+      <c r="A24" s="508">
         <v>1</v>
       </c>
-      <c r="B24" s="426" t="s">
+      <c r="B24" s="533" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="427"/>
-      <c r="D24" s="428"/>
-      <c r="E24" s="414" t="str">
+      <c r="C24" s="534"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="513" t="str">
         <f>Данные!C14</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F24" s="415"/>
-      <c r="G24" s="418">
+      <c r="F24" s="514"/>
+      <c r="G24" s="517">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="H24" s="420"/>
-      <c r="I24" s="421"/>
-      <c r="J24" s="422"/>
+      <c r="H24" s="519"/>
+      <c r="I24" s="520"/>
+      <c r="J24" s="521"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="413"/>
-      <c r="B25" s="408" t="str">
+      <c r="A25" s="509"/>
+      <c r="B25" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C25" s="409"/>
-      <c r="D25" s="410"/>
-      <c r="E25" s="416"/>
-      <c r="F25" s="417"/>
-      <c r="G25" s="419"/>
-      <c r="H25" s="423"/>
-      <c r="I25" s="424"/>
-      <c r="J25" s="425"/>
+      <c r="C25" s="527"/>
+      <c r="D25" s="528"/>
+      <c r="E25" s="525"/>
+      <c r="F25" s="516"/>
+      <c r="G25" s="518"/>
+      <c r="H25" s="522"/>
+      <c r="I25" s="523"/>
+      <c r="J25" s="524"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="412">
+      <c r="A26" s="508">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="430" t="s">
+      <c r="B26" s="510" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="431"/>
-      <c r="D26" s="432"/>
-      <c r="E26" s="414" t="str">
+      <c r="C26" s="511"/>
+      <c r="D26" s="512"/>
+      <c r="E26" s="513" t="str">
         <f>Данные!C15</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F26" s="415"/>
-      <c r="G26" s="418">
+      <c r="F26" s="514"/>
+      <c r="G26" s="517">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="H26" s="420"/>
-      <c r="I26" s="421"/>
-      <c r="J26" s="422"/>
+      <c r="H26" s="519"/>
+      <c r="I26" s="520"/>
+      <c r="J26" s="521"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="413"/>
-      <c r="B27" s="408" t="str">
+      <c r="A27" s="509"/>
+      <c r="B27" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C27" s="409"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="416"/>
-      <c r="F27" s="417"/>
-      <c r="G27" s="419"/>
-      <c r="H27" s="423"/>
-      <c r="I27" s="424"/>
-      <c r="J27" s="425"/>
+      <c r="C27" s="527"/>
+      <c r="D27" s="528"/>
+      <c r="E27" s="525"/>
+      <c r="F27" s="516"/>
+      <c r="G27" s="518"/>
+      <c r="H27" s="522"/>
+      <c r="I27" s="523"/>
+      <c r="J27" s="524"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="412">
+      <c r="A28" s="508">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="430" t="s">
+      <c r="B28" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="431"/>
-      <c r="D28" s="432"/>
-      <c r="E28" s="414" t="str">
+      <c r="C28" s="511"/>
+      <c r="D28" s="512"/>
+      <c r="E28" s="513" t="str">
         <f>Данные!C16</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F28" s="415"/>
-      <c r="G28" s="418">
+      <c r="F28" s="514"/>
+      <c r="G28" s="517">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="H28" s="420"/>
-      <c r="I28" s="421"/>
-      <c r="J28" s="422"/>
+      <c r="H28" s="519"/>
+      <c r="I28" s="520"/>
+      <c r="J28" s="521"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="413"/>
-      <c r="B29" s="408" t="str">
+      <c r="A29" s="509"/>
+      <c r="B29" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C29" s="409"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="416"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="419"/>
-      <c r="H29" s="423"/>
-      <c r="I29" s="424"/>
-      <c r="J29" s="425"/>
+      <c r="C29" s="527"/>
+      <c r="D29" s="528"/>
+      <c r="E29" s="525"/>
+      <c r="F29" s="516"/>
+      <c r="G29" s="518"/>
+      <c r="H29" s="522"/>
+      <c r="I29" s="523"/>
+      <c r="J29" s="524"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="412">
+      <c r="A30" s="508">
         <f t="shared" ref="A30:A32" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="430" t="s">
+      <c r="B30" s="510" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="431"/>
-      <c r="D30" s="432"/>
-      <c r="E30" s="414" t="str">
+      <c r="C30" s="511"/>
+      <c r="D30" s="512"/>
+      <c r="E30" s="513" t="str">
         <f>Данные!C17</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F30" s="415"/>
-      <c r="G30" s="418">
+      <c r="F30" s="514"/>
+      <c r="G30" s="517">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="H30" s="420"/>
-      <c r="I30" s="421"/>
-      <c r="J30" s="422"/>
+      <c r="H30" s="519"/>
+      <c r="I30" s="520"/>
+      <c r="J30" s="521"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="413"/>
-      <c r="B31" s="408" t="str">
+      <c r="A31" s="509"/>
+      <c r="B31" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C31" s="409"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="433"/>
-      <c r="F31" s="417"/>
-      <c r="G31" s="419"/>
-      <c r="H31" s="423"/>
-      <c r="I31" s="424"/>
-      <c r="J31" s="425"/>
+      <c r="C31" s="527"/>
+      <c r="D31" s="528"/>
+      <c r="E31" s="515"/>
+      <c r="F31" s="516"/>
+      <c r="G31" s="518"/>
+      <c r="H31" s="522"/>
+      <c r="I31" s="523"/>
+      <c r="J31" s="524"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="412">
+      <c r="A32" s="508">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B32" s="430" t="s">
+      <c r="B32" s="510" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="431"/>
-      <c r="D32" s="432"/>
-      <c r="E32" s="414" t="str">
+      <c r="C32" s="511"/>
+      <c r="D32" s="512"/>
+      <c r="E32" s="513" t="str">
         <f>Данные!C23</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F32" s="415"/>
-      <c r="G32" s="418">
+      <c r="F32" s="514"/>
+      <c r="G32" s="517">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="H32" s="420"/>
-      <c r="I32" s="421"/>
-      <c r="J32" s="422"/>
+      <c r="H32" s="519"/>
+      <c r="I32" s="520"/>
+      <c r="J32" s="521"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="413"/>
-      <c r="B33" s="408" t="str">
+      <c r="A33" s="509"/>
+      <c r="B33" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C33" s="409"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="433"/>
-      <c r="F33" s="417"/>
-      <c r="G33" s="419"/>
-      <c r="H33" s="423"/>
-      <c r="I33" s="424"/>
-      <c r="J33" s="425"/>
+      <c r="C33" s="527"/>
+      <c r="D33" s="528"/>
+      <c r="E33" s="515"/>
+      <c r="F33" s="516"/>
+      <c r="G33" s="518"/>
+      <c r="H33" s="522"/>
+      <c r="I33" s="523"/>
+      <c r="J33" s="524"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
       <c r="A34" s="311"/>
@@ -10502,28 +10502,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10540,6 +10518,28 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10594,47 +10594,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="461" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="468" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="469"/>
-      <c r="K2" s="472">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="L2" s="473"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="464"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="455"/>
-      <c r="C3" s="456"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="465" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="470"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="475"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10645,9 +10645,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="458"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="460"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10666,22 +10666,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="438"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10692,22 +10692,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="441"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="439"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="398"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10718,27 +10718,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="445"/>
-      <c r="D7" s="400">
+      <c r="C7" s="572"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="444" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="448"/>
-      <c r="K7" s="388">
+      <c r="J7" s="575"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11166,12 +11166,12 @@
     </row>
     <row r="21" spans="1:19" ht="14.4">
       <c r="A21" s="78"/>
-      <c r="B21" s="449" t="s">
+      <c r="B21" s="576" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="450"/>
-      <c r="D21" s="450"/>
-      <c r="E21" s="451"/>
+      <c r="C21" s="577"/>
+      <c r="D21" s="577"/>
+      <c r="E21" s="578"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -11193,12 +11193,12 @@
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="78"/>
-      <c r="B22" s="434" t="s">
+      <c r="B22" s="561" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="435"/>
-      <c r="D22" s="435"/>
-      <c r="E22" s="436"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="562"/>
+      <c r="E22" s="563"/>
       <c r="F22" s="116" t="s">
         <v>16</v>
       </c>
@@ -11242,12 +11242,6 @@
     <row r="24" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11262,6 +11256,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R22">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11327,50 +11327,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="483">
+      <c r="B2" s="579">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="464"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11381,9 +11381,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11402,22 +11402,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11428,22 +11428,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11454,27 +11454,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11671,13 +11671,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="449" t="s">
+      <c r="B14" s="576" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="450"/>
-      <c r="D14" s="450"/>
-      <c r="E14" s="450"/>
-      <c r="F14" s="482"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
+      <c r="F14" s="608"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -11696,12 +11696,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="434" t="s">
+      <c r="B15" s="561" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="435"/>
-      <c r="D15" s="435"/>
-      <c r="E15" s="436"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="563"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -11752,12 +11752,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -11772,6 +11766,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -11845,47 +11845,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="461" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="468" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="469"/>
-      <c r="K2" s="472">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="L2" s="473"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="464"/>
+      <c r="P2" s="549"/>
+      <c r="Q2" s="549"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="455"/>
-      <c r="C3" s="456"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="465" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="470"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="475"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11896,9 +11896,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="458"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="460"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11917,22 +11917,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="438"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11943,22 +11943,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="441"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="439"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="398"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11969,27 +11969,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="445"/>
-      <c r="D7" s="400">
+      <c r="C7" s="572"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="444" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="448"/>
-      <c r="K7" s="388">
+      <c r="J7" s="575"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12472,11 +12472,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12490,6 +12485,11 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12557,47 +12557,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="452"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="461" t="s">
+      <c r="B2" s="537"/>
+      <c r="C2" s="538"/>
+      <c r="D2" s="539"/>
+      <c r="E2" s="546" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="468" t="s">
+      <c r="F2" s="547"/>
+      <c r="G2" s="547"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="553" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="469"/>
-      <c r="K2" s="472">
+      <c r="J2" s="554"/>
+      <c r="K2" s="557">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="L2" s="473"/>
+      <c r="L2" s="558"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="609"/>
+      <c r="Q2" s="609"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="455"/>
-      <c r="C3" s="456"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="465" t="s">
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="550" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="466"/>
-      <c r="G3" s="466"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="470"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="474"/>
-      <c r="L3" s="475"/>
+      <c r="F3" s="551"/>
+      <c r="G3" s="551"/>
+      <c r="H3" s="552"/>
+      <c r="I3" s="555"/>
+      <c r="J3" s="556"/>
+      <c r="K3" s="559"/>
+      <c r="L3" s="560"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12608,9 +12608,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="458"/>
-      <c r="C4" s="459"/>
-      <c r="D4" s="460"/>
+      <c r="B4" s="543"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="545"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12629,22 +12629,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="438"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="439"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12655,22 +12655,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="441"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="439"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="398"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12681,27 +12681,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="445"/>
-      <c r="D7" s="400">
+      <c r="C7" s="572"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="444" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="448"/>
-      <c r="K7" s="388">
+      <c r="J7" s="575"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -12986,17 +12986,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13004,6 +12993,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13075,60 +13075,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502" t="str">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598" t="str">
         <f>Данные!B18</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="503"/>
-      <c r="M2" s="507"/>
-      <c r="N2" s="508"/>
-      <c r="O2" s="508"/>
-      <c r="P2" s="508"/>
-      <c r="Q2" s="508"/>
-      <c r="R2" s="509"/>
+      <c r="L2" s="599"/>
+      <c r="M2" s="610"/>
+      <c r="N2" s="611"/>
+      <c r="O2" s="611"/>
+      <c r="P2" s="611"/>
+      <c r="Q2" s="611"/>
+      <c r="R2" s="612"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
-      <c r="M3" s="510"/>
-      <c r="N3" s="511"/>
-      <c r="O3" s="511"/>
-      <c r="P3" s="511"/>
-      <c r="Q3" s="511"/>
-      <c r="R3" s="512"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
+      <c r="M3" s="613"/>
+      <c r="N3" s="614"/>
+      <c r="O3" s="614"/>
+      <c r="P3" s="614"/>
+      <c r="Q3" s="614"/>
+      <c r="R3" s="615"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13137,95 +13137,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="510"/>
-      <c r="N4" s="511"/>
-      <c r="O4" s="511"/>
-      <c r="P4" s="511"/>
-      <c r="Q4" s="511"/>
-      <c r="R4" s="512"/>
+      <c r="M4" s="613"/>
+      <c r="N4" s="614"/>
+      <c r="O4" s="614"/>
+      <c r="P4" s="614"/>
+      <c r="Q4" s="614"/>
+      <c r="R4" s="615"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
-      <c r="M5" s="510"/>
-      <c r="N5" s="511"/>
-      <c r="O5" s="511"/>
-      <c r="P5" s="511"/>
-      <c r="Q5" s="511"/>
-      <c r="R5" s="512"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
+      <c r="M5" s="613"/>
+      <c r="N5" s="614"/>
+      <c r="O5" s="614"/>
+      <c r="P5" s="614"/>
+      <c r="Q5" s="614"/>
+      <c r="R5" s="615"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
-      <c r="M6" s="510"/>
-      <c r="N6" s="511"/>
-      <c r="O6" s="511"/>
-      <c r="P6" s="511"/>
-      <c r="Q6" s="511"/>
-      <c r="R6" s="512"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
+      <c r="M6" s="613"/>
+      <c r="N6" s="614"/>
+      <c r="O6" s="614"/>
+      <c r="P6" s="614"/>
+      <c r="Q6" s="614"/>
+      <c r="R6" s="615"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
-      <c r="M7" s="510"/>
-      <c r="N7" s="511"/>
-      <c r="O7" s="511"/>
-      <c r="P7" s="511"/>
-      <c r="Q7" s="511"/>
-      <c r="R7" s="512"/>
+      <c r="L7" s="494"/>
+      <c r="M7" s="613"/>
+      <c r="N7" s="614"/>
+      <c r="O7" s="614"/>
+      <c r="P7" s="614"/>
+      <c r="Q7" s="614"/>
+      <c r="R7" s="615"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
@@ -13614,12 +13614,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1">
       <c r="A20" s="78"/>
-      <c r="B20" s="434" t="s">
+      <c r="B20" s="561" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="435"/>
-      <c r="D20" s="435"/>
-      <c r="E20" s="436"/>
+      <c r="C20" s="562"/>
+      <c r="D20" s="562"/>
+      <c r="E20" s="563"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -13665,6 +13665,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -13677,13 +13684,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -13748,47 +13748,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="492" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="493"/>
-      <c r="G2" s="493"/>
-      <c r="H2" s="494"/>
-      <c r="I2" s="498" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="594" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="499"/>
-      <c r="K2" s="502" t="str">
+      <c r="J2" s="595"/>
+      <c r="K2" s="598" t="str">
         <f>Данные!B19</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="503"/>
+      <c r="L2" s="599"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="513"/>
-      <c r="Q2" s="513"/>
+      <c r="P2" s="616"/>
+      <c r="Q2" s="616"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="495" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="591" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="500"/>
-      <c r="J3" s="501"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="F3" s="592"/>
+      <c r="G3" s="592"/>
+      <c r="H3" s="593"/>
+      <c r="I3" s="596"/>
+      <c r="J3" s="597"/>
+      <c r="K3" s="600"/>
+      <c r="L3" s="601"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13799,9 +13799,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="489"/>
-      <c r="C4" s="490"/>
-      <c r="D4" s="491"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13820,22 +13820,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="437" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="476"/>
-      <c r="D5" s="397" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="477"/>
-      <c r="J5" s="478"/>
-      <c r="K5" s="479"/>
-      <c r="L5" s="399"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13846,22 +13846,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="391" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="442"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="442"/>
-      <c r="H6" s="443"/>
-      <c r="I6" s="477"/>
-      <c r="J6" s="478"/>
-      <c r="K6" s="479"/>
-      <c r="L6" s="399"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13872,27 +13872,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="400">
+      <c r="C7" s="606"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="446"/>
-      <c r="F7" s="446"/>
-      <c r="G7" s="446"/>
-      <c r="H7" s="447"/>
-      <c r="I7" s="481" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="480"/>
-      <c r="K7" s="388">
+      <c r="J7" s="606"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="389"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14155,12 +14155,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="434" t="s">
+      <c r="B16" s="561" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="435"/>
-      <c r="D16" s="435"/>
-      <c r="E16" s="436"/>
+      <c r="C16" s="562"/>
+      <c r="D16" s="562"/>
+      <c r="E16" s="563"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14206,6 +14206,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14216,15 +14225,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XI-28MCA-700 (Баден 0.7)/от 25.10.2019 Баден 0.7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XI-28MCA-700 (Баден 0.7)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A98296-1508-43C2-BE2C-188F240ABA91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -36,7 +37,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -478,15 +486,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2148,7 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="628">
@@ -3344,7 +3352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3356,7 +3364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3417,25 +3425,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3447,11 +3455,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3462,7 +3470,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,11 +3484,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
@@ -3492,13 +3500,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3511,7 +3519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3525,6 +3533,24 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3533,30 +3559,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3601,12 +3603,87 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3616,149 +3693,8 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3810,73 +3746,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3900,6 +3839,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3926,42 +3934,42 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4251,7 +4259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4297,7 +4311,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4342,7 +4362,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4386,7 +4412,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4435,7 +4467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4481,7 +4519,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4525,7 +4569,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4569,7 +4619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4618,7 +4674,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4664,7 +4726,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4708,7 +4776,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4752,7 +4826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4801,7 +4881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4847,7 +4933,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4891,7 +4983,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4935,7 +5033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4984,7 +5088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5030,7 +5140,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5074,7 +5190,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5118,7 +5240,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5167,7 +5295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5213,7 +5347,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5257,7 +5397,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5300,7 +5446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5346,7 +5498,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5395,7 +5553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5441,7 +5605,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5485,7 +5655,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5529,7 +5705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5578,7 +5760,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5624,7 +5812,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5668,7 +5862,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5712,7 +5912,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5761,7 +5967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5807,7 +6019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5851,7 +6069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5895,7 +6119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6003,6 +6233,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6038,6 +6285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6213,78 +6477,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="484" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="481" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="484"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-      <c r="I1" s="484"/>
+      <c r="B1" s="481"/>
+      <c r="C1" s="481"/>
+      <c r="D1" s="481"/>
+      <c r="E1" s="481"/>
+      <c r="F1" s="481"/>
+      <c r="G1" s="481"/>
+      <c r="H1" s="481"/>
+      <c r="I1" s="481"/>
       <c r="J1" s="387"/>
       <c r="K1" s="387"/>
       <c r="L1" s="387"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="484" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="481" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="484"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
+      <c r="B2" s="481"/>
+      <c r="C2" s="481"/>
+      <c r="D2" s="481"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
+      <c r="I2" s="481"/>
       <c r="J2" s="388"/>
       <c r="K2" s="388"/>
       <c r="L2" s="388"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="485" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="482" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="485"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="485"/>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="485"/>
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="D3" s="482"/>
+      <c r="E3" s="482"/>
+      <c r="F3" s="482"/>
+      <c r="G3" s="482"/>
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
       <c r="K3" s="389"/>
       <c r="L3" s="389"/>
       <c r="M3" s="390"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="390"/>
       <c r="B4" s="391"/>
       <c r="C4" s="391"/>
@@ -6296,7 +6560,7 @@
       <c r="K4" s="389"/>
       <c r="M4" s="372"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="394" t="s">
         <v>114</v>
       </c>
@@ -6326,7 +6590,7 @@
       <c r="K5" s="397"/>
       <c r="L5" s="397"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="398">
         <v>1</v>
       </c>
@@ -6354,7 +6618,7 @@
       <c r="K6" s="390"/>
       <c r="L6" s="404"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="405">
         <f>A6+1</f>
         <v>2</v>
@@ -6383,7 +6647,7 @@
       <c r="K7" s="390"/>
       <c r="L7" s="404"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="405">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -6412,7 +6676,7 @@
       <c r="K8" s="390"/>
       <c r="L8" s="404"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="405">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6441,7 +6705,7 @@
       <c r="K9" s="390"/>
       <c r="L9" s="404"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="405">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6470,7 +6734,7 @@
       <c r="K10" s="409"/>
       <c r="L10" s="404"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="405">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6496,7 +6760,7 @@
       <c r="K11" s="390"/>
       <c r="L11" s="404"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="405">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6523,7 +6787,7 @@
       <c r="L12" s="404"/>
       <c r="M12" s="412"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="405">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6550,7 +6814,7 @@
       <c r="L13" s="404"/>
       <c r="M13" s="412"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="405">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6578,7 +6842,7 @@
       <c r="K14" s="409"/>
       <c r="L14" s="404"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="405">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6604,7 +6868,7 @@
       <c r="K15" s="409"/>
       <c r="L15" s="404"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="405">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6630,7 +6894,7 @@
       <c r="K16" s="409"/>
       <c r="L16" s="404"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="414">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6656,7 +6920,7 @@
       <c r="K17" s="409"/>
       <c r="L17" s="404"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="420" t="s">
         <v>143</v>
       </c>
@@ -6670,7 +6934,7 @@
       <c r="I18" s="390"/>
       <c r="J18" s="390"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="390"/>
       <c r="B19" s="422" t="s">
         <v>125</v>
@@ -6686,7 +6950,7 @@
       <c r="K19" s="423"/>
       <c r="L19" s="423"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="394" t="s">
         <v>126</v>
       </c>
@@ -6718,7 +6982,7 @@
       <c r="K20" s="397"/>
       <c r="L20" s="397"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="427">
         <f>D6*700000</f>
         <v>14000000</v>
@@ -6754,7 +7018,7 @@
       <c r="K21" s="409"/>
       <c r="L21" s="409"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="435"/>
       <c r="B22" s="436"/>
       <c r="C22" s="436"/>
@@ -6777,7 +7041,7 @@
       <c r="K22" s="390"/>
       <c r="L22" s="390"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="440"/>
       <c r="B23" s="441"/>
       <c r="C23" s="441"/>
@@ -6791,7 +7055,7 @@
       <c r="K23" s="409"/>
       <c r="L23" s="409"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="440"/>
       <c r="B24" s="446"/>
       <c r="C24" s="446"/>
@@ -6805,7 +7069,7 @@
       <c r="K24" s="434"/>
       <c r="L24" s="390"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="440"/>
       <c r="B25" s="441"/>
       <c r="C25" s="441"/>
@@ -6819,7 +7083,7 @@
       <c r="K25" s="449"/>
       <c r="L25" s="390"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="440"/>
       <c r="B26" s="441"/>
       <c r="C26" s="441"/>
@@ -6833,7 +7097,7 @@
       <c r="K26" s="434"/>
       <c r="L26" s="390"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="440"/>
       <c r="B27" s="441"/>
       <c r="C27" s="441"/>
@@ -6847,7 +7111,7 @@
       <c r="K27" s="434"/>
       <c r="L27" s="390"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="440"/>
       <c r="B28" s="441"/>
       <c r="C28" s="441"/>
@@ -6861,7 +7125,7 @@
       <c r="K28" s="434"/>
       <c r="L28" s="390"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="440"/>
       <c r="B29" s="441"/>
       <c r="C29" s="441"/>
@@ -6875,7 +7139,7 @@
       <c r="K29" s="434"/>
       <c r="L29" s="390"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="440"/>
       <c r="B30" s="441"/>
       <c r="C30" s="441"/>
@@ -6889,7 +7153,7 @@
       <c r="K30" s="434"/>
       <c r="L30" s="390"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="452"/>
       <c r="B31" s="453"/>
       <c r="C31" s="453"/>
@@ -6903,7 +7167,7 @@
       <c r="K31" s="390"/>
       <c r="L31" s="390"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="459" t="s">
         <v>135</v>
       </c>
@@ -6934,7 +7198,7 @@
       <c r="K32" s="467"/>
       <c r="L32" s="467"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="390"/>
       <c r="B35" s="390"/>
       <c r="C35" s="390"/>
@@ -6946,13 +7210,13 @@
       <c r="I35" s="390"/>
       <c r="J35" s="390"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="486" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="483" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="486"/>
-      <c r="C36" s="486"/>
-      <c r="D36" s="486"/>
+      <c r="B36" s="483"/>
+      <c r="C36" s="483"/>
+      <c r="D36" s="483"/>
       <c r="E36" s="390"/>
       <c r="F36" s="390"/>
       <c r="G36" s="390"/>
@@ -6960,11 +7224,11 @@
       <c r="I36" s="390"/>
       <c r="J36" s="390"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="487" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="484" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="487"/>
+      <c r="B37" s="484"/>
       <c r="C37" s="468" t="s">
         <v>138</v>
       </c>
@@ -6978,12 +7242,12 @@
       <c r="I37" s="390"/>
       <c r="J37" s="390"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="488">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="479">
         <f>A21-F32</f>
         <v>13724744</v>
       </c>
-      <c r="B38" s="489"/>
+      <c r="B38" s="480"/>
       <c r="C38" s="469">
         <f>1-G32</f>
         <v>0.98033885714285718</v>
@@ -7001,7 +7265,7 @@
       <c r="I38" s="471"/>
       <c r="J38" s="471"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="390"/>
       <c r="B39" s="390"/>
       <c r="C39" s="390"/>
@@ -7009,7 +7273,7 @@
       <c r="E39" s="390"/>
       <c r="F39" s="390"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="390"/>
       <c r="B40" s="390"/>
       <c r="C40" s="390"/>
@@ -7024,7 +7288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="390"/>
       <c r="B41" s="472"/>
       <c r="C41" s="472"/>
@@ -7036,7 +7300,7 @@
       <c r="I41" s="390"/>
       <c r="J41" s="390"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="473"/>
       <c r="B42" s="473"/>
       <c r="C42" s="473"/>
@@ -7045,10 +7309,10 @@
       <c r="F42" s="473"/>
       <c r="G42" s="473"/>
       <c r="H42" s="473"/>
-      <c r="I42" s="479"/>
-      <c r="J42" s="480"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="485"/>
+      <c r="J42" s="486"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="474"/>
       <c r="B43" s="475"/>
       <c r="C43" s="475"/>
@@ -7058,7 +7322,7 @@
       <c r="G43" s="419"/>
       <c r="H43" s="475"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="474"/>
       <c r="B44" s="475"/>
       <c r="C44" s="475"/>
@@ -7068,7 +7332,7 @@
       <c r="G44" s="419"/>
       <c r="H44" s="475"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="474"/>
       <c r="B45" s="475"/>
       <c r="C45" s="475"/>
@@ -7078,7 +7342,7 @@
       <c r="G45" s="419"/>
       <c r="H45" s="475"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="474"/>
       <c r="B46" s="475"/>
       <c r="C46" s="475"/>
@@ -7088,7 +7352,7 @@
       <c r="G46" s="419"/>
       <c r="H46" s="475"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="474"/>
       <c r="B47" s="475"/>
       <c r="C47" s="475"/>
@@ -7098,7 +7362,7 @@
       <c r="G47" s="419"/>
       <c r="H47" s="475"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="474"/>
       <c r="B48" s="475"/>
       <c r="C48" s="409"/>
@@ -7108,7 +7372,7 @@
       <c r="G48" s="409"/>
       <c r="H48" s="409"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="474"/>
       <c r="B49" s="475"/>
       <c r="C49" s="475"/>
@@ -7118,7 +7382,7 @@
       <c r="G49" s="419"/>
       <c r="H49" s="475"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="474"/>
       <c r="B50" s="475"/>
       <c r="C50" s="475"/>
@@ -7128,7 +7392,7 @@
       <c r="G50" s="419"/>
       <c r="H50" s="475"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="474"/>
       <c r="B51" s="475"/>
       <c r="C51" s="475"/>
@@ -7138,11 +7402,11 @@
       <c r="G51" s="419"/>
       <c r="H51" s="475"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="390"/>
-      <c r="B52" s="481"/>
-      <c r="C52" s="481"/>
-      <c r="D52" s="482"/>
+      <c r="B52" s="487"/>
+      <c r="C52" s="487"/>
+      <c r="D52" s="488"/>
       <c r="E52" s="471"/>
       <c r="F52" s="390"/>
       <c r="G52" s="390"/>
@@ -7150,7 +7414,7 @@
       <c r="I52" s="390"/>
       <c r="J52" s="390"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="473"/>
       <c r="B53" s="473"/>
       <c r="C53" s="473"/>
@@ -7159,10 +7423,10 @@
       <c r="F53" s="473"/>
       <c r="G53" s="473"/>
       <c r="H53" s="473"/>
-      <c r="I53" s="479"/>
-      <c r="J53" s="480"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="485"/>
+      <c r="J53" s="486"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="474"/>
       <c r="B54" s="390"/>
       <c r="C54" s="390"/>
@@ -7171,10 +7435,10 @@
       <c r="F54" s="419"/>
       <c r="G54" s="419"/>
       <c r="H54" s="475"/>
-      <c r="I54" s="483"/>
-      <c r="J54" s="483"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="489"/>
+      <c r="J54" s="489"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="474"/>
       <c r="B55" s="390"/>
       <c r="C55" s="390"/>
@@ -7183,10 +7447,10 @@
       <c r="F55" s="409"/>
       <c r="G55" s="409"/>
       <c r="H55" s="409"/>
-      <c r="I55" s="483"/>
-      <c r="J55" s="483"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="489"/>
+      <c r="J55" s="489"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="390"/>
       <c r="B56" s="390"/>
       <c r="C56" s="390"/>
@@ -7196,22 +7460,16 @@
       <c r="G56" s="390"/>
       <c r="H56" s="390"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="479"/>
-      <c r="C61" s="480"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="479"/>
-      <c r="C68" s="480"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="485"/>
+      <c r="C61" s="486"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="485"/>
+      <c r="C68" s="486"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -7219,9 +7477,15 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -7229,7 +7493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7239,20 +7503,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="169" customWidth="1"/>
     <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
+    <col min="19" max="19" width="1.42578125" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -7273,26 +7537,26 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598" t="str">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605" t="str">
         <f>Данные!B20</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -7301,21 +7565,21 @@
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -7324,11 +7588,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7345,24 +7609,24 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7371,24 +7635,24 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7397,29 +7661,29 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7428,7 +7692,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -7449,7 +7713,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7482,7 +7746,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -7517,7 +7781,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -7550,7 +7814,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -7583,7 +7847,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -7616,7 +7880,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -7649,7 +7913,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -7682,7 +7946,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -7715,7 +7979,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -7748,7 +8012,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -7781,7 +8045,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -7802,20 +8066,9 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7823,6 +8076,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7842,7 +8106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7852,20 +8116,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="208" customWidth="1"/>
     <col min="8" max="18" width="9" style="208" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="208"/>
+    <col min="19" max="19" width="1.42578125" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -7886,49 +8150,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598" t="str">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605" t="str">
         <f>Данные!B21</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="618"/>
-      <c r="Q2" s="618"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7937,11 +8201,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7958,24 +8222,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7984,24 +8248,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -8010,29 +8274,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8041,7 +8305,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -8062,7 +8326,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8095,7 +8359,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -8128,7 +8392,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -8161,7 +8425,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -8194,7 +8458,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -8227,7 +8491,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -8260,7 +8524,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -8293,7 +8557,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -8326,7 +8590,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -8359,14 +8623,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="619" t="s">
+      <c r="B18" s="618" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="620"/>
-      <c r="D18" s="620"/>
-      <c r="E18" s="621"/>
+      <c r="C18" s="619"/>
+      <c r="D18" s="619"/>
+      <c r="E18" s="620"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8386,7 +8650,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -8407,9 +8671,17 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8421,14 +8693,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8468,7 +8732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8478,20 +8742,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8512,26 +8776,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598" t="str">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605" t="str">
         <f>Данные!B26</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -8540,21 +8804,21 @@
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8563,11 +8827,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8584,24 +8848,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8610,24 +8874,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8636,29 +8900,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8667,7 +8931,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -8688,7 +8952,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8721,7 +8985,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -8754,7 +9018,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -8787,7 +9051,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -8820,7 +9084,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -8853,7 +9117,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -8886,7 +9150,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -8919,7 +9183,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -8952,7 +9216,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8973,7 +9237,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8994,7 +9258,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -9015,7 +9279,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -9036,20 +9300,9 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9057,6 +9310,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9076,7 +9340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9086,20 +9350,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
     <col min="3" max="3" width="11" style="265" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="265" customWidth="1"/>
     <col min="8" max="18" width="9" style="265" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="265"/>
+    <col min="19" max="19" width="1.42578125" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -9120,49 +9384,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="624">
+      <c r="J2" s="602"/>
+      <c r="K2" s="623">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="L2" s="625"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="626"/>
-      <c r="L3" s="627"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -9171,11 +9435,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9192,24 +9456,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -9218,24 +9482,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -9244,29 +9508,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9275,7 +9539,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -9296,7 +9560,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -9329,7 +9593,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -9362,7 +9626,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -9395,7 +9659,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -9428,7 +9692,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -9461,7 +9725,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -9494,7 +9758,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -9515,7 +9779,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -9536,14 +9800,9 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9557,6 +9816,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9582,90 +9846,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="495" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="493" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
       <c r="G1" s="371" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="496" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="494" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="496"/>
       <c r="G2" s="370" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="370" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="500" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="498" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="502" t="s">
+      <c r="B4" s="499"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="500" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="495" t="s">
+      <c r="B5" s="501"/>
+      <c r="C5" s="501"/>
+      <c r="D5" s="501"/>
+      <c r="E5" s="502"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="493" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="495" t="s">
+      <c r="B7" s="497"/>
+      <c r="C7" s="497"/>
+      <c r="D7" s="497"/>
+      <c r="E7" s="497"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="503"/>
+      <c r="B8" s="504"/>
+      <c r="C8" s="504"/>
+      <c r="D8" s="504"/>
+      <c r="E8" s="505"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="493" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="493"/>
       <c r="C10" s="372"/>
       <c r="D10" s="379" t="s">
         <v>93</v>
@@ -9675,36 +9939,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="491"/>
+      <c r="B11" s="492"/>
       <c r="D11" s="378">
         <v>43763</v>
       </c>
-      <c r="F11" s="490" t="s">
+      <c r="F11" s="506" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="491" t="s">
+      <c r="G11" s="506"/>
+      <c r="H11" s="506"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="507" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="491"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="490" t="s">
+      <c r="K11" s="507"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="506" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="490"/>
-      <c r="H12" s="490"/>
-      <c r="I12" s="490"/>
-      <c r="J12" s="491" t="s">
+      <c r="G12" s="506"/>
+      <c r="H12" s="506"/>
+      <c r="I12" s="506"/>
+      <c r="J12" s="507" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="491"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="507"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
         <v>87</v>
       </c>
@@ -9714,18 +9978,18 @@
       <c r="C13" s="382" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="490" t="s">
+      <c r="F13" s="506" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="490"/>
-      <c r="H13" s="490"/>
-      <c r="I13" s="490"/>
-      <c r="J13" s="491" t="s">
+      <c r="G13" s="506"/>
+      <c r="H13" s="506"/>
+      <c r="I13" s="506"/>
+      <c r="J13" s="507" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="491"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="507"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
         <v>42</v>
       </c>
@@ -9736,7 +10000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="375" t="s">
         <v>43</v>
       </c>
@@ -9747,7 +10011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -9758,7 +10022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -9769,7 +10033,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="375" t="s">
         <v>46</v>
       </c>
@@ -9780,7 +10044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="375" t="s">
         <v>89</v>
       </c>
@@ -9791,7 +10055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="375" t="s">
         <v>50</v>
       </c>
@@ -9802,7 +10066,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="375" t="s">
         <v>52</v>
       </c>
@@ -9813,7 +10077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="375" t="s">
         <v>90</v>
       </c>
@@ -9824,7 +10088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="375" t="s">
         <v>55</v>
       </c>
@@ -9835,7 +10099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="375" t="s">
         <v>69</v>
       </c>
@@ -9846,7 +10110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="375" t="s">
         <v>91</v>
       </c>
@@ -9857,7 +10121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="377" t="s">
         <v>54</v>
       </c>
@@ -9868,7 +10132,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="377" t="s">
         <v>105</v>
       </c>
@@ -9879,23 +10143,29 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="380"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="492" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="490" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="490"/>
+      <c r="C29" s="490"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -9905,12 +10175,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9918,25 +10182,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K43"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="1" max="3" width="9.140625" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="307"/>
-    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="307"/>
+    <col min="5" max="6" width="9.140625" style="307"/>
+    <col min="7" max="7" width="9.140625" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="316" t="s">
         <v>57</v>
       </c>
@@ -9945,7 +10209,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="316" t="s">
         <v>101</v>
       </c>
@@ -9954,7 +10218,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="316" t="s">
         <v>104</v>
       </c>
@@ -9963,8 +10227,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>102</v>
@@ -9972,12 +10236,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="310" t="s">
         <v>58</v>
       </c>
@@ -9987,50 +10251,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="530" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="509" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="530"/>
-      <c r="C11" s="530"/>
-      <c r="D11" s="530"/>
-      <c r="E11" s="530"/>
-      <c r="F11" s="530"/>
-      <c r="G11" s="530"/>
-      <c r="H11" s="530"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="530"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="529" t="s">
+      <c r="B11" s="509"/>
+      <c r="C11" s="509"/>
+      <c r="D11" s="509"/>
+      <c r="E11" s="509"/>
+      <c r="F11" s="509"/>
+      <c r="G11" s="509"/>
+      <c r="H11" s="509"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="509"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="508" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="529"/>
-      <c r="C12" s="529"/>
-      <c r="D12" s="529"/>
-      <c r="E12" s="529"/>
-      <c r="F12" s="529"/>
-      <c r="G12" s="529"/>
-      <c r="H12" s="529"/>
-      <c r="I12" s="529"/>
-      <c r="J12" s="529"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="531" t="str">
+      <c r="B12" s="508"/>
+      <c r="C12" s="508"/>
+      <c r="D12" s="508"/>
+      <c r="E12" s="508"/>
+      <c r="F12" s="508"/>
+      <c r="G12" s="508"/>
+      <c r="H12" s="508"/>
+      <c r="I12" s="508"/>
+      <c r="J12" s="508"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="510" t="str">
         <f>Данные!A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="B13" s="530"/>
-      <c r="C13" s="530"/>
-      <c r="D13" s="530"/>
-      <c r="E13" s="530"/>
-      <c r="F13" s="530"/>
-      <c r="G13" s="530"/>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="530"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
+      <c r="B13" s="509"/>
+      <c r="C13" s="509"/>
+      <c r="D13" s="509"/>
+      <c r="E13" s="509"/>
+      <c r="F13" s="509"/>
+      <c r="G13" s="509"/>
+      <c r="H13" s="509"/>
+      <c r="I13" s="509"/>
+      <c r="J13" s="509"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
         <v>59</v>
       </c>
@@ -10047,7 +10311,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="311" t="s">
         <v>95</v>
       </c>
@@ -10061,7 +10325,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="319" t="s">
         <v>60</v>
       </c>
@@ -10082,7 +10346,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="319" t="s">
         <v>60</v>
       </c>
@@ -10103,7 +10367,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -10121,7 +10385,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="311" t="s">
         <v>74</v>
       </c>
@@ -10138,7 +10402,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="311" t="s">
         <v>75</v>
       </c>
@@ -10152,230 +10416,230 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="532" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="514" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="532" t="s">
+      <c r="B22" s="514" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="532"/>
-      <c r="D22" s="532"/>
-      <c r="E22" s="532" t="s">
+      <c r="C22" s="514"/>
+      <c r="D22" s="514"/>
+      <c r="E22" s="514" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="532"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="514"/>
+      <c r="G22" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="532" t="s">
+      <c r="H22" s="514" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="532"/>
-      <c r="J22" s="532"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="532"/>
-      <c r="B23" s="532"/>
-      <c r="C23" s="532"/>
-      <c r="D23" s="532"/>
-      <c r="E23" s="532"/>
-      <c r="F23" s="532"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="532"/>
-      <c r="I23" s="532"/>
-      <c r="J23" s="532"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="508">
+      <c r="I22" s="514"/>
+      <c r="J22" s="514"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="514"/>
+      <c r="B23" s="514"/>
+      <c r="C23" s="514"/>
+      <c r="D23" s="514"/>
+      <c r="E23" s="514"/>
+      <c r="F23" s="514"/>
+      <c r="G23" s="532"/>
+      <c r="H23" s="514"/>
+      <c r="I23" s="514"/>
+      <c r="J23" s="514"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="515">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="529" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="513" t="str">
+      <c r="C24" s="530"/>
+      <c r="D24" s="531"/>
+      <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F24" s="514"/>
-      <c r="G24" s="517">
+      <c r="F24" s="518"/>
+      <c r="G24" s="521">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="H24" s="519"/>
-      <c r="I24" s="520"/>
-      <c r="J24" s="521"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="509"/>
-      <c r="B25" s="526" t="str">
+      <c r="H24" s="523"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="525"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="516"/>
+      <c r="B25" s="511" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C25" s="527"/>
-      <c r="D25" s="528"/>
-      <c r="E25" s="525"/>
-      <c r="F25" s="516"/>
-      <c r="G25" s="518"/>
-      <c r="H25" s="522"/>
-      <c r="I25" s="523"/>
-      <c r="J25" s="524"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="508">
+      <c r="C25" s="512"/>
+      <c r="D25" s="513"/>
+      <c r="E25" s="519"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="527"/>
+      <c r="J25" s="528"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="515">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="510" t="s">
+      <c r="B26" s="533" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="511"/>
-      <c r="D26" s="512"/>
-      <c r="E26" s="513" t="str">
+      <c r="C26" s="534"/>
+      <c r="D26" s="535"/>
+      <c r="E26" s="517" t="str">
         <f>Данные!C15</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F26" s="514"/>
-      <c r="G26" s="517">
+      <c r="F26" s="518"/>
+      <c r="G26" s="521">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="H26" s="519"/>
-      <c r="I26" s="520"/>
-      <c r="J26" s="521"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="509"/>
-      <c r="B27" s="526" t="str">
+      <c r="H26" s="523"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="525"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="516"/>
+      <c r="B27" s="511" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C27" s="527"/>
-      <c r="D27" s="528"/>
-      <c r="E27" s="525"/>
-      <c r="F27" s="516"/>
-      <c r="G27" s="518"/>
-      <c r="H27" s="522"/>
-      <c r="I27" s="523"/>
-      <c r="J27" s="524"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="508">
+      <c r="C27" s="512"/>
+      <c r="D27" s="513"/>
+      <c r="E27" s="519"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="527"/>
+      <c r="J27" s="528"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="515">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="510" t="s">
+      <c r="B28" s="533" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="511"/>
-      <c r="D28" s="512"/>
-      <c r="E28" s="513" t="str">
+      <c r="C28" s="534"/>
+      <c r="D28" s="535"/>
+      <c r="E28" s="517" t="str">
         <f>Данные!C16</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F28" s="514"/>
-      <c r="G28" s="517">
+      <c r="F28" s="518"/>
+      <c r="G28" s="521">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="H28" s="519"/>
-      <c r="I28" s="520"/>
-      <c r="J28" s="521"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="509"/>
-      <c r="B29" s="526" t="str">
+      <c r="H28" s="523"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="525"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="516"/>
+      <c r="B29" s="511" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C29" s="527"/>
-      <c r="D29" s="528"/>
-      <c r="E29" s="525"/>
-      <c r="F29" s="516"/>
-      <c r="G29" s="518"/>
-      <c r="H29" s="522"/>
-      <c r="I29" s="523"/>
-      <c r="J29" s="524"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="508">
+      <c r="C29" s="512"/>
+      <c r="D29" s="513"/>
+      <c r="E29" s="519"/>
+      <c r="F29" s="520"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="527"/>
+      <c r="J29" s="528"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="515">
         <f t="shared" ref="A30:A32" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="510" t="s">
+      <c r="B30" s="533" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="511"/>
-      <c r="D30" s="512"/>
-      <c r="E30" s="513" t="str">
+      <c r="C30" s="534"/>
+      <c r="D30" s="535"/>
+      <c r="E30" s="517" t="str">
         <f>Данные!C17</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F30" s="514"/>
-      <c r="G30" s="517">
+      <c r="F30" s="518"/>
+      <c r="G30" s="521">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="H30" s="519"/>
-      <c r="I30" s="520"/>
-      <c r="J30" s="521"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="509"/>
-      <c r="B31" s="526" t="str">
+      <c r="H30" s="523"/>
+      <c r="I30" s="524"/>
+      <c r="J30" s="525"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="516"/>
+      <c r="B31" s="511" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C31" s="527"/>
-      <c r="D31" s="528"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="516"/>
-      <c r="G31" s="518"/>
-      <c r="H31" s="522"/>
-      <c r="I31" s="523"/>
-      <c r="J31" s="524"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="508">
+      <c r="C31" s="512"/>
+      <c r="D31" s="513"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="527"/>
+      <c r="J31" s="528"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="515">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B32" s="510" t="s">
+      <c r="B32" s="533" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="511"/>
-      <c r="D32" s="512"/>
-      <c r="E32" s="513" t="str">
+      <c r="C32" s="534"/>
+      <c r="D32" s="535"/>
+      <c r="E32" s="517" t="str">
         <f>Данные!C23</f>
         <v>BADEN 700</v>
       </c>
-      <c r="F32" s="514"/>
-      <c r="G32" s="517">
+      <c r="F32" s="518"/>
+      <c r="G32" s="521">
         <f>Данные!B23</f>
         <v>8</v>
       </c>
-      <c r="H32" s="519"/>
-      <c r="I32" s="520"/>
-      <c r="J32" s="521"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="509"/>
-      <c r="B33" s="526" t="str">
+      <c r="H32" s="523"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="516"/>
+      <c r="B33" s="511" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка ХI-28MCA-700 Баден 0.7)</v>
       </c>
-      <c r="C33" s="527"/>
-      <c r="D33" s="528"/>
-      <c r="E33" s="515"/>
-      <c r="F33" s="516"/>
-      <c r="G33" s="518"/>
-      <c r="H33" s="522"/>
-      <c r="I33" s="523"/>
-      <c r="J33" s="524"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.6">
+      <c r="C33" s="512"/>
+      <c r="D33" s="513"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="520"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="311"/>
       <c r="B34" s="311"/>
       <c r="C34" s="311"/>
@@ -10387,7 +10651,7 @@
       <c r="I34" s="311"/>
       <c r="J34" s="312"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="311" t="s">
         <v>70</v>
       </c>
@@ -10401,7 +10665,7 @@
       <c r="I35" s="311"/>
       <c r="J35" s="312"/>
     </row>
-    <row r="36" spans="1:10" ht="15.6">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="311"/>
       <c r="B36" s="311"/>
       <c r="C36" s="311"/>
@@ -10413,7 +10677,7 @@
       <c r="I36" s="311"/>
       <c r="J36" s="312"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="311"/>
       <c r="B37" s="314" t="s">
         <v>71</v>
@@ -10429,7 +10693,7 @@
       <c r="I37" s="311"/>
       <c r="J37" s="312"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="311"/>
       <c r="B38" s="311"/>
       <c r="C38" s="311"/>
@@ -10441,7 +10705,7 @@
       <c r="I38" s="311"/>
       <c r="J38" s="312"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="311"/>
       <c r="B39" s="311"/>
       <c r="C39" s="311"/>
@@ -10455,7 +10719,7 @@
       </c>
       <c r="J39" s="311"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="311"/>
       <c r="B40" s="311"/>
       <c r="C40" s="311"/>
@@ -10466,7 +10730,7 @@
       <c r="I40" s="311"/>
       <c r="J40" s="311"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="311"/>
       <c r="B41" s="311"/>
       <c r="C41" s="311"/>
@@ -10479,14 +10743,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.399999999999999">
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="308"/>
       <c r="B42" s="308"/>
       <c r="C42" s="308"/>
       <c r="D42" s="308"/>
       <c r="E42" s="308"/>
     </row>
-    <row r="43" spans="1:10" ht="17.399999999999999">
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="308"/>
       <c r="B43" s="308"/>
       <c r="C43" s="308"/>
@@ -10502,6 +10766,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10518,28 +10804,6 @@
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10548,7 +10812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -10558,20 +10822,20 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10592,49 +10856,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B14</f>
         <v>6</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10643,11 +10907,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10664,24 +10928,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="541"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="542"/>
+      <c r="J5" s="543"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10690,24 +10954,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="544"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="542"/>
+      <c r="J6" s="543"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10716,29 +10980,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="505">
+      <c r="C7" s="548"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="547" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="493">
+      <c r="J7" s="551"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10747,7 +11011,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -10768,7 +11032,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10801,7 +11065,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -10834,7 +11098,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -10867,7 +11131,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -10900,7 +11164,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -10933,7 +11197,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -10966,7 +11230,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -10999,7 +11263,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11032,7 +11296,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -11065,7 +11329,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="23.25" customHeight="1">
+    <row r="18" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -11098,7 +11362,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>35</v>
@@ -11131,7 +11395,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="28.2" customHeight="1">
+    <row r="20" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>40</v>
@@ -11164,14 +11428,14 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="14.4">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
-      <c r="B21" s="576" t="s">
+      <c r="B21" s="552" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="577"/>
-      <c r="D21" s="577"/>
-      <c r="E21" s="578"/>
+      <c r="C21" s="553"/>
+      <c r="D21" s="553"/>
+      <c r="E21" s="554"/>
       <c r="F21" s="116" t="s">
         <v>16</v>
       </c>
@@ -11191,14 +11455,14 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
-      <c r="B22" s="561" t="s">
+      <c r="B22" s="537" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="562"/>
-      <c r="D22" s="562"/>
-      <c r="E22" s="563"/>
+      <c r="C22" s="538"/>
+      <c r="D22" s="538"/>
+      <c r="E22" s="539"/>
       <c r="F22" s="116" t="s">
         <v>16</v>
       </c>
@@ -11218,7 +11482,7 @@
       <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="23" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
@@ -11239,9 +11503,15 @@
       <c r="R23" s="113"/>
       <c r="S23" s="114"/>
     </row>
-    <row r="24" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11256,12 +11526,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R22">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11281,7 +11545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11291,20 +11555,20 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11325,52 +11589,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579">
+      <c r="B2" s="586">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605">
         <f>Данные!B15</f>
         <v>6</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11379,11 +11643,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11400,24 +11664,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11426,24 +11690,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11452,29 +11716,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11483,7 +11747,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11504,7 +11768,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11537,7 +11801,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11570,7 +11834,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -11603,7 +11867,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -11636,7 +11900,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -11669,15 +11933,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="576" t="s">
+      <c r="B14" s="552" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="577"/>
-      <c r="D14" s="577"/>
-      <c r="E14" s="577"/>
-      <c r="F14" s="608"/>
+      <c r="C14" s="553"/>
+      <c r="D14" s="553"/>
+      <c r="E14" s="553"/>
+      <c r="F14" s="585"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -11694,14 +11958,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="537" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="563"/>
+      <c r="C15" s="538"/>
+      <c r="D15" s="538"/>
+      <c r="E15" s="539"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -11721,7 +11985,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -11742,16 +12006,22 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -11766,12 +12036,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -11799,7 +12063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11809,20 +12073,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11843,49 +12107,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>8</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="549"/>
-      <c r="Q2" s="549"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11894,11 +12158,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11915,24 +12179,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="541"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="542"/>
+      <c r="J5" s="543"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11941,24 +12205,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="544"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="542"/>
+      <c r="J6" s="543"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11967,29 +12231,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="505">
+      <c r="C7" s="548"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="547" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="493">
+      <c r="J7" s="551"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11998,7 +12262,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12019,7 +12283,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12055,7 +12319,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12091,7 +12355,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12127,7 +12391,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12163,7 +12427,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12199,7 +12463,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12235,7 +12499,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12271,7 +12535,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12307,7 +12571,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -12343,7 +12607,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -12379,7 +12643,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -12415,7 +12679,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -12448,7 +12712,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -12469,9 +12733,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12488,8 +12754,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12511,7 +12775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12521,20 +12785,20 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -12555,26 +12819,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="537"/>
-      <c r="C2" s="538"/>
-      <c r="D2" s="539"/>
-      <c r="E2" s="546" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="547"/>
-      <c r="G2" s="547"/>
-      <c r="H2" s="548"/>
-      <c r="I2" s="553" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="554"/>
-      <c r="K2" s="557">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B17</f>
         <v>8</v>
       </c>
-      <c r="L2" s="558"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12583,21 +12847,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="542"/>
-      <c r="E3" s="550" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="551"/>
-      <c r="G3" s="551"/>
-      <c r="H3" s="552"/>
-      <c r="I3" s="555"/>
-      <c r="J3" s="556"/>
-      <c r="K3" s="559"/>
-      <c r="L3" s="560"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12606,11 +12870,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="543"/>
-      <c r="C4" s="544"/>
-      <c r="D4" s="545"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12627,24 +12891,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="541"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="542"/>
+      <c r="J5" s="543"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12653,24 +12917,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="544"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="542"/>
+      <c r="J6" s="543"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12679,29 +12943,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="505">
+      <c r="C7" s="548"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="547" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="493">
+      <c r="J7" s="551"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -12710,7 +12974,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -12731,7 +12995,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12764,7 +13028,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -12797,7 +13061,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -12830,7 +13094,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -12863,7 +13127,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -12896,7 +13160,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -12929,7 +13193,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -12962,7 +13226,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -12983,9 +13247,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12993,17 +13268,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13026,7 +13290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13039,20 +13303,20 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13073,26 +13337,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598" t="str">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605" t="str">
         <f>Данные!B18</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="610"/>
       <c r="N2" s="611"/>
       <c r="O2" s="611"/>
@@ -13101,21 +13365,21 @@
       <c r="R2" s="612"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="613"/>
       <c r="N3" s="614"/>
       <c r="O3" s="614"/>
@@ -13124,11 +13388,11 @@
       <c r="R3" s="615"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13145,24 +13409,24 @@
       <c r="R4" s="615"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="613"/>
       <c r="N5" s="614"/>
       <c r="O5" s="614"/>
@@ -13171,24 +13435,24 @@
       <c r="R5" s="615"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="613"/>
       <c r="N6" s="614"/>
       <c r="O6" s="614"/>
@@ -13197,29 +13461,29 @@
       <c r="R6" s="615"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="613"/>
       <c r="N7" s="614"/>
       <c r="O7" s="614"/>
@@ -13228,7 +13492,7 @@
       <c r="R7" s="615"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13249,7 +13513,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13282,7 +13546,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13315,7 +13579,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -13348,7 +13612,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -13381,7 +13645,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -13414,7 +13678,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13447,7 +13711,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13480,7 +13744,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -13513,7 +13777,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -13546,7 +13810,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -13579,7 +13843,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -13612,14 +13876,14 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="561" t="s">
+      <c r="B20" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="562"/>
-      <c r="D20" s="562"/>
-      <c r="E20" s="563"/>
+      <c r="C20" s="538"/>
+      <c r="D20" s="538"/>
+      <c r="E20" s="539"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -13639,7 +13903,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -13660,18 +13924,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -13684,6 +13941,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -13703,7 +13967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -13713,19 +13977,19 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13746,26 +14010,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="586"/>
+      <c r="C2" s="587"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="595" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="596"/>
+      <c r="G2" s="596"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="601" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598" t="str">
+      <c r="J2" s="602"/>
+      <c r="K2" s="605" t="str">
         <f>Данные!B19</f>
         <v>нет</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="606"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -13774,21 +14038,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="589"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="598" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="599"/>
+      <c r="H3" s="600"/>
+      <c r="I3" s="603"/>
+      <c r="J3" s="604"/>
+      <c r="K3" s="607"/>
+      <c r="L3" s="608"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13797,11 +14061,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="592"/>
+      <c r="C4" s="593"/>
+      <c r="D4" s="594"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13818,24 +14082,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="579"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="580"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13844,24 +14108,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="579"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
         <v>ХI-28MCA-700 (Баден 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="545"/>
+      <c r="F6" s="545"/>
+      <c r="G6" s="545"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="580"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13870,29 +14134,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="505">
+      <c r="C7" s="583"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="493">
+      <c r="J7" s="583"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13901,7 +14165,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13922,7 +14186,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13955,7 +14219,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -13988,7 +14252,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -14021,7 +14285,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -14054,7 +14318,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -14087,7 +14351,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -14120,7 +14384,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -14153,14 +14417,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="561" t="s">
+      <c r="B16" s="537" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="562"/>
-      <c r="D16" s="562"/>
-      <c r="E16" s="563"/>
+      <c r="C16" s="538"/>
+      <c r="D16" s="538"/>
+      <c r="E16" s="539"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14180,7 +14444,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -14201,20 +14465,11 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14225,6 +14480,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
